--- a/pc_pracs.xlsx
+++ b/pc_pracs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natya\Documents\PC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natya\Desktop\DMS practical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B40F20-9700-499C-B41E-75B9FBFD71E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7E4A6-7608-4D25-B3C8-B5575061B894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Plotting and fitting of binomial distribution.</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Uniform (10 to 20)</t>
   </si>
   <si>
-    <t>Normal (mean=15,std=10)</t>
-  </si>
-  <si>
     <t>Exponential(ʎ=2)</t>
   </si>
   <si>
@@ -234,12 +231,42 @@
   <si>
     <t>Karl Pearson Correlation</t>
   </si>
+  <si>
+    <t>Plotting and fitting of multinomial distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotting and fitting of Poisson Distribution. </t>
+  </si>
+  <si>
+    <t>Plot and fit geometric distribution</t>
+  </si>
+  <si>
+    <t>Plotting and fitting of uniform distribution</t>
+  </si>
+  <si>
+    <t>Plotting and fitting of exponential distribution.</t>
+  </si>
+  <si>
+    <t>Karl Pearson coefficientand plotting of bivariate data in scatter plot diagram</t>
+  </si>
+  <si>
+    <t>Generating random numbers for discrete distribution</t>
+  </si>
+  <si>
+    <t>Generating random numbers for continuous distribution</t>
+  </si>
+  <si>
+    <t>Normal (mean=15,std=100)</t>
+  </si>
+  <si>
+    <t>(RAND()*b-a)+a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,13 +291,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,23 +321,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,10 +503,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,166 +1705,166 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5595866011852901</c:v>
+                  <c:v>1.8700314971638494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6432411215298353</c:v>
+                  <c:v>2.8053917640438879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0101196132532242</c:v>
+                  <c:v>1.0409167340612999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6717210748115168</c:v>
+                  <c:v>2.9650222569465137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6442534575800458</c:v>
+                  <c:v>2.398531357591319</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.116711902238551</c:v>
+                  <c:v>2.445585368593318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6999039038120678</c:v>
+                  <c:v>1.8174560834925493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2314120578131647</c:v>
+                  <c:v>7.6935977388234233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4912160757647408</c:v>
+                  <c:v>5.1813905060045897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.19998317118303</c:v>
+                  <c:v>9.5483448496037369</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4541792759585412</c:v>
+                  <c:v>10.646114805548157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8505288119261012</c:v>
+                  <c:v>2.4675481773972878</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3766014137501319</c:v>
+                  <c:v>11.816468864409575</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.08723989499748</c:v>
+                  <c:v>13.140474478419986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.446321054823764</c:v>
+                  <c:v>9.6759362325337772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.9274207499954272</c:v>
+                  <c:v>10.094680920440084</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5142208896769844</c:v>
+                  <c:v>12.644823164422583</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3102791072875997</c:v>
+                  <c:v>16.217930546866882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.690399020373459</c:v>
+                  <c:v>16.814390109836559</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.9690976890796</c:v>
+                  <c:v>16.365324257211991</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1420877200264128</c:v>
+                  <c:v>11.155477867213861</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.135512058191988</c:v>
+                  <c:v>1.6123607121655827</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.531478210559289</c:v>
+                  <c:v>18.012604723425948</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.143560749290415</c:v>
+                  <c:v>22.831114484777601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.4053758010292086</c:v>
+                  <c:v>18.374246863428862</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.438681281866931</c:v>
+                  <c:v>9.9902645069898579</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.370883161444837</c:v>
+                  <c:v>2.5479381042969593</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.1254127101890887</c:v>
+                  <c:v>11.718595718875189</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.594061031787042</c:v>
+                  <c:v>1.3966420591819233</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.617644916510557</c:v>
+                  <c:v>3.9954897013087898</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.773411412223343</c:v>
+                  <c:v>14.555330911707987</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.1425586908971077</c:v>
+                  <c:v>27.569997743447111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.143131467477502</c:v>
+                  <c:v>12.3234892084112</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30.612412131565552</c:v>
+                  <c:v>28.264186971478043</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.054075557694087</c:v>
+                  <c:v>30.288384886346208</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.183903405246722</c:v>
+                  <c:v>30.796469929653313</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.063490928427278</c:v>
+                  <c:v>29.356928801310346</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.3240459593186493</c:v>
+                  <c:v>26.250644417805269</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.856461205669717</c:v>
+                  <c:v>17.31123891041538</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.853999927907722</c:v>
+                  <c:v>21.324968107410104</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17.801010246742763</c:v>
+                  <c:v>41.049320644132315</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14.389557489639444</c:v>
+                  <c:v>3.6517879063433316</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>22.050232134720762</c:v>
+                  <c:v>4.4607596601225703</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.961792480683057</c:v>
+                  <c:v>27.161842372126202</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.932561992475094</c:v>
+                  <c:v>30.205138015739863</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7125513686706906</c:v>
+                  <c:v>43.238361651380366</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.891117228770177</c:v>
+                  <c:v>4.1642582900643674</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>24.897465136234715</c:v>
+                  <c:v>27.036360807535765</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>13.303884168068617</c:v>
+                  <c:v>31.205895962918284</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.2032827727185094</c:v>
+                  <c:v>35.35536010964514</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>24.164160603411037</c:v>
+                  <c:v>25.623678685841924</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.408474540078789</c:v>
+                  <c:v>10.460144831251611</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.613915154175636</c:v>
+                  <c:v>40.637314329791785</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.710225970917953</c:v>
+                  <c:v>30.388118635670072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,304 +3006,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.0423690835813781</c:v>
+                  <c:v>3.2601715414517041</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3641044566540934</c:v>
+                  <c:v>1.7175426144300332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0173993071308844</c:v>
+                  <c:v>1.4022819184452318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4700088255752508</c:v>
+                  <c:v>4.1278255924037701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.390505526574259</c:v>
+                  <c:v>6.9539618883035352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1633169745714067</c:v>
+                  <c:v>0.22241048648706019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0093125313892948</c:v>
+                  <c:v>5.3532723223588778</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97751962556213656</c:v>
+                  <c:v>3.7138627236295396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7470615476312643</c:v>
+                  <c:v>9.0221345938977056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6765239540733812</c:v>
+                  <c:v>5.7451103984179142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2247830575162988</c:v>
+                  <c:v>4.3931233475276255</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.2767617427690006</c:v>
+                  <c:v>4.9848120138974581</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4952453055724222</c:v>
+                  <c:v>3.7352339814314837</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5573505381083264</c:v>
+                  <c:v>1.5918875407959399</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8914465313321449</c:v>
+                  <c:v>3.7234028818576337</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2387437496448177</c:v>
+                  <c:v>0.43716944602954166</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6251577301121678</c:v>
+                  <c:v>8.7668236568908053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5423988516329552</c:v>
+                  <c:v>8.5210567005029461</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5284667502804461</c:v>
+                  <c:v>0.75731504528740334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5252771163134904</c:v>
+                  <c:v>1.8389501565234023</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3589937771956073</c:v>
+                  <c:v>2.9125196736100545</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5752827918446943</c:v>
+                  <c:v>0.2290144184281151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.570259982876153</c:v>
+                  <c:v>9.8938333848033153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1944059024450286</c:v>
+                  <c:v>3.2093948009048425</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.8083974884907565</c:v>
+                  <c:v>0.62893405926065404</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.3170477210978682</c:v>
+                  <c:v>3.3422258892530499</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.7389497089614689</c:v>
+                  <c:v>5.3163585933770445</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3620531551329567</c:v>
+                  <c:v>5.2804910170250459</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0880238361687251</c:v>
+                  <c:v>5.4919809820454546</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7001679436001265</c:v>
+                  <c:v>5.0618632080075638</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.32549662175335725</c:v>
+                  <c:v>8.2718101542594766</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.6777701038462132</c:v>
+                  <c:v>4.2939742299713917</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67618322184736512</c:v>
+                  <c:v>3.6522864089027762</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5379821644747083</c:v>
+                  <c:v>1.7680965670032456</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.5080792175790587</c:v>
+                  <c:v>8.7836473321278916</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.7983516414876117</c:v>
+                  <c:v>7.5151127149923971</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.0207545936452007</c:v>
+                  <c:v>8.7870948455813203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5692195844121659</c:v>
+                  <c:v>2.4186545313081487</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.842037599490407</c:v>
+                  <c:v>8.1511773757194543</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3520385052426409</c:v>
+                  <c:v>6.5194850335192367</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2543789227407509</c:v>
+                  <c:v>3.6694129113518734</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.6315647978978731</c:v>
+                  <c:v>8.7682603600558746</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.43937910612589</c:v>
+                  <c:v>5.7903574349715701</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2317964237681984</c:v>
+                  <c:v>9.9265116152573505</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.0227347930785378</c:v>
+                  <c:v>2.6117767394298141</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.482618572049736</c:v>
+                  <c:v>0.20354209934942524</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.1699547229714113</c:v>
+                  <c:v>9.0439444724484606</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1539747785687815</c:v>
+                  <c:v>1.1625360938831963</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4130894939435166</c:v>
+                  <c:v>2.6026749723503615</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.6174553311074744</c:v>
+                  <c:v>9.7837386050226467</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.3958995477055058</c:v>
+                  <c:v>8.700986403314932</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.4148584626138971</c:v>
+                  <c:v>1.7366083259903364</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.5336075918738805</c:v>
+                  <c:v>9.8163606199425697</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.6906635998982296</c:v>
+                  <c:v>1.7439446670435754</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.6313701103021288E-2</c:v>
+                  <c:v>4.4806095042919818</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.8106567181709323</c:v>
+                  <c:v>7.5331356641331881</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.0752590231829391</c:v>
+                  <c:v>1.4363968555680684</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.4984208421035419</c:v>
+                  <c:v>8.3549279940701915</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.367947666694771</c:v>
+                  <c:v>3.2605270658709262</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.30422798831507114</c:v>
+                  <c:v>8.6345916685378725</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.9329539206767428</c:v>
+                  <c:v>5.0007398229859854</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.5846986119849844</c:v>
+                  <c:v>8.0168351517394321</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.7311659141567404</c:v>
+                  <c:v>7.2795384132935759</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.91177781644349309</c:v>
+                  <c:v>9.692621402781171</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.5086867216553799</c:v>
+                  <c:v>6.1584901315354781</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.1569607270296975</c:v>
+                  <c:v>1.6952146487804698</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.8649463075240593</c:v>
+                  <c:v>0.74590411209615293</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.3947895354786226</c:v>
+                  <c:v>1.4604344685862658</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.4040599090076284</c:v>
+                  <c:v>4.3316926395379829</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.7669554685941904</c:v>
+                  <c:v>8.5206623125460048</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.1864347969162381</c:v>
+                  <c:v>8.4853048170124517</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0077713665284724</c:v>
+                  <c:v>6.7180409280046538</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3671788719159301</c:v>
+                  <c:v>0.68112993098496832</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.9579967829411071</c:v>
+                  <c:v>3.7297673696878677</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.5747357029640625</c:v>
+                  <c:v>6.0736353841605961</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.6150768264996183</c:v>
+                  <c:v>4.7678760995433862</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3061991845232708</c:v>
+                  <c:v>0.53676179209032004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.1887627009291943</c:v>
+                  <c:v>1.4923350331097063</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.5228494956350058</c:v>
+                  <c:v>9.1469180880991399</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4918714833539646</c:v>
+                  <c:v>8.975614394796116</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.4921432961654606</c:v>
+                  <c:v>8.6485519459054565</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9577393122939197</c:v>
+                  <c:v>0.37475934635305741</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.7738614964443342</c:v>
+                  <c:v>7.9777774697341055</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.3915687141534061</c:v>
+                  <c:v>5.4872889096782931</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.8376438757720654</c:v>
+                  <c:v>0.81793126083737566</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.5013324948442168</c:v>
+                  <c:v>8.6518805147436044</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.9261403588744512</c:v>
+                  <c:v>9.959329212663901</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.7027647800884416</c:v>
+                  <c:v>4.6307798452018663</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.1754986899453428</c:v>
+                  <c:v>9.9194700102827369</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6218639458362338</c:v>
+                  <c:v>3.8587386587898731</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6877638893217517</c:v>
+                  <c:v>0.8365464605743711</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8029689512535263</c:v>
+                  <c:v>5.4773611744387551</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.3703016583116838</c:v>
+                  <c:v>2.729729975772377</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.2025965486399581</c:v>
+                  <c:v>0.15072444097783189</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.2229826082919466</c:v>
+                  <c:v>8.7239349939138595</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.3510014895637177</c:v>
+                  <c:v>7.2509641431560912</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.0107498480240924</c:v>
+                  <c:v>9.5870721324097392</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.3728762566808754</c:v>
+                  <c:v>0.74874899538123207</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.3884878048383635</c:v>
+                  <c:v>1.8474056085654655</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.0648525519522281</c:v>
+                  <c:v>0.6626843158240836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3271,304 +3315,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>51.581473369587762</c:v>
+                  <c:v>54.387619796321175</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.422762959713417</c:v>
+                  <c:v>88.030819861427346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.101202038164118</c:v>
+                  <c:v>39.154921922351171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.078255298264786</c:v>
+                  <c:v>29.554513104546608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.346289173395853</c:v>
+                  <c:v>17.81072951909448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.903902606455201</c:v>
+                  <c:v>31.875078811697012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9394491322207403</c:v>
+                  <c:v>92.127673915951164</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.795270990915512</c:v>
+                  <c:v>48.357161169816756</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.763637132659326</c:v>
+                  <c:v>70.913125367136402</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.201802458432731</c:v>
+                  <c:v>69.347515399285641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.144963238397835</c:v>
+                  <c:v>37.863543066306825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.097491112068056</c:v>
+                  <c:v>13.548897884386468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52.379594197365698</c:v>
+                  <c:v>96.343790145937291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.891357692325673</c:v>
+                  <c:v>80.318772178948294</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.260686843094717</c:v>
+                  <c:v>47.938329339997509</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>88.827610328657897</c:v>
+                  <c:v>55.216932625002443</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.003523388497836</c:v>
+                  <c:v>45.689377635249194</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>89.914792777747891</c:v>
+                  <c:v>15.853142570113921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.198747024652043</c:v>
+                  <c:v>76.143574838966742</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56.070391551124864</c:v>
+                  <c:v>33.361508750745436</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.838272740492741</c:v>
+                  <c:v>40.064926894918386</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90.386526485292123</c:v>
+                  <c:v>49.414117659289168</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3197549731562424</c:v>
+                  <c:v>12.610757311309506</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.993793173879567</c:v>
+                  <c:v>38.25995494836075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.194661940075516</c:v>
+                  <c:v>55.490167503886859</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>86.793257662052781</c:v>
+                  <c:v>42.808456746654457</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.800739833312164</c:v>
+                  <c:v>92.360245718048688</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.860997628493553</c:v>
+                  <c:v>41.281485125388315</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.275062742684764</c:v>
+                  <c:v>2.7923938973032802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.858839593729599</c:v>
+                  <c:v>46.792467307223028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.5480948021741892</c:v>
+                  <c:v>88.212191686420766</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8827609795527129</c:v>
+                  <c:v>55.385095811349551</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>24.814858240996539</c:v>
+                  <c:v>18.889596199655511</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83.665643784344425</c:v>
+                  <c:v>99.029197957781093</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>53.018469193014674</c:v>
+                  <c:v>75.661299635683278</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.704979798298787</c:v>
+                  <c:v>69.514383219159214</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>16.078755401192158</c:v>
+                  <c:v>98.489435156052323</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.651744054101194</c:v>
+                  <c:v>18.627566288335618</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>79.723635587183665</c:v>
+                  <c:v>97.321789292435184</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.272078749065955</c:v>
+                  <c:v>69.507906603287267</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>94.740919306236464</c:v>
+                  <c:v>75.185866231619841</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44.234568552209694</c:v>
+                  <c:v>49.500434975485042</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>49.655183992726329</c:v>
+                  <c:v>52.029081477412575</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>78.116357845136037</c:v>
+                  <c:v>36.297579372793074</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>95.629955810376671</c:v>
+                  <c:v>1.9365592512335161</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>69.783476597971926</c:v>
+                  <c:v>40.365559369794958</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>73.833525293207714</c:v>
+                  <c:v>15.465410159853521</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>95.513020204760593</c:v>
+                  <c:v>7.4833237271174857</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>33.178059455457273</c:v>
+                  <c:v>29.616629348917378</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>86.338546978984269</c:v>
+                  <c:v>67.632875783280426</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>49.263857503477041</c:v>
+                  <c:v>35.023597161503432</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.826487482049288</c:v>
+                  <c:v>89.964293154894037</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38.529131975082635</c:v>
+                  <c:v>44.738479000035184</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.579903610478681</c:v>
+                  <c:v>32.361182593689563</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>70.335435962490791</c:v>
+                  <c:v>24.71854348723549</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>23.697983998088144</c:v>
+                  <c:v>41.472565362507872</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>88.350198739777724</c:v>
+                  <c:v>26.292239712765774</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>81.527930079687067</c:v>
+                  <c:v>12.740760728331912</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.964310639287795</c:v>
+                  <c:v>97.568478899294263</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>15.482865646845989</c:v>
+                  <c:v>80.161434934957697</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>34.73781326005949</c:v>
+                  <c:v>51.50185471511525</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.1658248646858755</c:v>
+                  <c:v>77.399740006761988</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>28.826566454991152</c:v>
+                  <c:v>82.621874733519093</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>60.87917545778447</c:v>
+                  <c:v>76.382763209508056</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>77.143224162050544</c:v>
+                  <c:v>46.472557368938674</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.520815623068927</c:v>
+                  <c:v>26.25613404543309</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>98.294044546328337</c:v>
+                  <c:v>42.748009115135154</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>46.216787831775385</c:v>
+                  <c:v>43.207464292867847</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37.919304830752566</c:v>
+                  <c:v>63.836747509442148</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>81.811911568454448</c:v>
+                  <c:v>64.893202057019138</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>22.607475072773099</c:v>
+                  <c:v>35.620226043554084</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73.77735092724852</c:v>
+                  <c:v>40.42178640349681</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>39.351609371950559</c:v>
+                  <c:v>21.805539591680521</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>32.239581661300562</c:v>
+                  <c:v>37.658425464943775</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>52.693096396139936</c:v>
+                  <c:v>31.266422406947004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>96.249214477327527</c:v>
+                  <c:v>44.859647612249454</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>40.598614274719999</c:v>
+                  <c:v>53.900148158818617</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>40.849038751678414</c:v>
+                  <c:v>58.872142067973122</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42.688012508965343</c:v>
+                  <c:v>41.498923669220979</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.482163397206728</c:v>
+                  <c:v>0.79541993918862408</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>75.932398033792253</c:v>
+                  <c:v>85.561765185518396</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>87.733352544250337</c:v>
+                  <c:v>85.718567918023822</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82.509063812796228</c:v>
+                  <c:v>8.8945825378444745</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>80.038720629516519</c:v>
+                  <c:v>94.785359661697271</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>98.50308888123169</c:v>
+                  <c:v>61.41230205737174</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>98.217744670572529</c:v>
+                  <c:v>31.581774071152413</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>55.303500602950571</c:v>
+                  <c:v>60.506291469620145</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>57.601797999364301</c:v>
+                  <c:v>59.783590018839064</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>79.689020251529541</c:v>
+                  <c:v>40.145572855610737</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>24.406424368787061</c:v>
+                  <c:v>18.355872993717792</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.409158521634559</c:v>
+                  <c:v>64.63682127017637</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>81.511694278913325</c:v>
+                  <c:v>13.401124543263975</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23.977567368201981</c:v>
+                  <c:v>4.114136686665848</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>27.439273383883499</c:v>
+                  <c:v>42.463147865478376</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>51.957051202144619</c:v>
+                  <c:v>14.273122299710517</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>48.668115639544581</c:v>
+                  <c:v>38.062326835174687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>67.180613703627969</c:v>
+                  <c:v>59.753451330003507</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>37.35854203148412</c:v>
+                  <c:v>79.392807304215623</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26.860040278088228</c:v>
+                  <c:v>60.296737544064968</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>37.110510018805897</c:v>
+                  <c:v>24.951400415127623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8894,15 +8938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>183697</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>29935</xdr:rowOff>
+      <xdr:colOff>224154</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>36944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>149313</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9490,8 +9534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAECFB5-2E3F-4924-B8CC-5AFCE5EF295A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9500,13 +9544,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9537,12 +9581,12 @@
         <f>_xlfn.BINOM.DIST(A6,$B$2,$B$3,FALSE)</f>
         <v>3.9062500000000009E-3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -9552,10 +9596,10 @@
         <f>_xlfn.BINOM.DIST(A7,$B$2,$B$3,FALSE)</f>
         <v>3.1249999999999993E-2</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -9565,10 +9609,10 @@
         <f t="shared" ref="B8:B14" si="0">_xlfn.BINOM.DIST(A8,$B$2,$B$3,FALSE)</f>
         <v>0.10937500000000006</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -9645,10 +9689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4899B8FF-4400-471A-9A76-87DB2955C2EA}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9658,32 +9702,35 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9692,7 +9739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -9700,7 +9747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -9723,7 +9770,7 @@
       </c>
       <c r="E17">
         <f>(FACT(B14)/(FACT(C16)*FACT(C17)*FACT(C18)*FACT(C19)))*POWER(B16,C16)*POWER(B17,C17)*POWER(B18,C18)*POWER(B19,C19)</f>
-        <v>8.709120000000006E-3</v>
+        <v>1.7418240000000012E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9734,7 +9781,7 @@
         <v>0.4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9745,7 +9792,7 @@
         <v>0.2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9762,8 +9809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7704C400-F38A-4E21-84B9-B32593B293BA}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9775,6 +9822,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="N1">
         <v>0</v>
       </c>
@@ -9788,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O65" si="0">POISSON(N2,100,TRUE)</f>
+        <f>POISSON(N2,100,TRUE)</f>
         <v>3.7572767357810366E-42</v>
       </c>
     </row>
@@ -9803,7 +9853,7 @@
         <v>2</v>
       </c>
       <c r="O3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O2:O65" si="0">POISSON(N3,100,TRUE)</f>
         <v>1.8976107553682424E-40</v>
       </c>
     </row>
@@ -9944,10 +9994,6 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>_xlfn.POISSON.DIST(B13,B12,FALSE)</f>
-        <v>5.5610648865130089E-3</v>
-      </c>
       <c r="N14">
         <v>13</v>
       </c>
@@ -11017,10 +11063,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A6B14A-ECB1-4C09-BF85-369A9B5E5206}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11029,6 +11075,11 @@
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>29</v>
@@ -11070,6 +11121,7 @@
         <v>0.24</v>
       </c>
       <c r="L5">
+        <f>K5</f>
         <v>0.24</v>
       </c>
     </row>
@@ -11126,11 +11178,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12">
@@ -11207,10 +11259,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55468606-F881-47F8-9EAD-12FE94E91DA7}">
-  <dimension ref="B2:N56"/>
+  <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11218,8 +11270,13 @@
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I2">
@@ -11237,19 +11294,22 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N56" ca="1" si="0">RAND()*(M3-$I$2)+$I$2</f>
-        <v>1.5595866011852901</v>
+        <v>1.8700314971638494</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M4">
@@ -11257,11 +11317,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6432411215298353</v>
+        <v>2.8053917640438879</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F5">
@@ -11273,11 +11333,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0101196132532242</v>
+        <v>1.0409167340612999</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F6">
@@ -11289,11 +11349,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6717210748115168</v>
+        <v>2.9650222569465137</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F7">
@@ -11311,11 +11371,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6442534575800458</v>
+        <v>2.398531357591319</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F8">
@@ -11333,11 +11393,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.116711902238551</v>
+        <v>2.445585368593318</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F9">
@@ -11355,11 +11415,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6999039038120678</v>
+        <v>1.8174560834925493</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F10">
@@ -11377,11 +11437,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2314120578131647</v>
+        <v>7.6935977388234233</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F11">
@@ -11393,7 +11453,7 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4912160757647408</v>
+        <v>5.1813905060045897</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -11402,7 +11462,7 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>8.19998317118303</v>
+        <v>9.5483448496037369</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -11411,7 +11471,7 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4541792759585412</v>
+        <v>10.646114805548157</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -11420,7 +11480,7 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8505288119261012</v>
+        <v>2.4675481773972878</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -11429,7 +11489,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3766014137501319</v>
+        <v>11.816468864409575</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -11438,7 +11498,7 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.08723989499748</v>
+        <v>13.140474478419986</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -11447,7 +11507,7 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>13.446321054823764</v>
+        <v>9.6759362325337772</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -11456,7 +11516,7 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9274207499954272</v>
+        <v>10.094680920440084</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -11465,7 +11525,7 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5142208896769844</v>
+        <v>12.644823164422583</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -11474,7 +11534,7 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3102791072875997</v>
+        <v>16.217930546866882</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -11483,7 +11543,7 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="0"/>
-        <v>18.690399020373459</v>
+        <v>16.814390109836559</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -11492,7 +11552,7 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="0"/>
-        <v>11.9690976890796</v>
+        <v>16.365324257211991</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -11501,7 +11561,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1420877200264128</v>
+        <v>11.155477867213861</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -11510,7 +11570,7 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="0"/>
-        <v>20.135512058191988</v>
+        <v>1.6123607121655827</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.25">
@@ -11519,7 +11579,7 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="0"/>
-        <v>5.531478210559289</v>
+        <v>18.012604723425948</v>
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.25">
@@ -11528,7 +11588,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="0"/>
-        <v>20.143560749290415</v>
+        <v>22.831114484777601</v>
       </c>
     </row>
     <row r="27" spans="13:14" x14ac:dyDescent="0.25">
@@ -11537,7 +11597,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4053758010292086</v>
+        <v>18.374246863428862</v>
       </c>
     </row>
     <row r="28" spans="13:14" x14ac:dyDescent="0.25">
@@ -11546,7 +11606,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="0"/>
-        <v>24.438681281866931</v>
+        <v>9.9902645069898579</v>
       </c>
     </row>
     <row r="29" spans="13:14" x14ac:dyDescent="0.25">
@@ -11555,7 +11615,7 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="0"/>
-        <v>11.370883161444837</v>
+        <v>2.5479381042969593</v>
       </c>
     </row>
     <row r="30" spans="13:14" x14ac:dyDescent="0.25">
@@ -11564,7 +11624,7 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1254127101890887</v>
+        <v>11.718595718875189</v>
       </c>
     </row>
     <row r="31" spans="13:14" x14ac:dyDescent="0.25">
@@ -11573,7 +11633,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="0"/>
-        <v>28.594061031787042</v>
+        <v>1.3966420591819233</v>
       </c>
     </row>
     <row r="32" spans="13:14" x14ac:dyDescent="0.25">
@@ -11582,7 +11642,7 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="0"/>
-        <v>28.617644916510557</v>
+        <v>3.9954897013087898</v>
       </c>
     </row>
     <row r="33" spans="13:14" x14ac:dyDescent="0.25">
@@ -11591,7 +11651,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="0"/>
-        <v>27.773411412223343</v>
+        <v>14.555330911707987</v>
       </c>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
@@ -11600,7 +11660,7 @@
       </c>
       <c r="N34">
         <f ca="1">RAND()*(M34-$I$2)+$I$2</f>
-        <v>7.1425586908971077</v>
+        <v>27.569997743447111</v>
       </c>
     </row>
     <row r="35" spans="13:14" x14ac:dyDescent="0.25">
@@ -11609,7 +11669,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="0"/>
-        <v>19.143131467477502</v>
+        <v>12.3234892084112</v>
       </c>
     </row>
     <row r="36" spans="13:14" x14ac:dyDescent="0.25">
@@ -11618,7 +11678,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="0"/>
-        <v>30.612412131565552</v>
+        <v>28.264186971478043</v>
       </c>
     </row>
     <row r="37" spans="13:14" x14ac:dyDescent="0.25">
@@ -11627,7 +11687,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="0"/>
-        <v>25.054075557694087</v>
+        <v>30.288384886346208</v>
       </c>
     </row>
     <row r="38" spans="13:14" x14ac:dyDescent="0.25">
@@ -11636,7 +11696,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="0"/>
-        <v>10.183903405246722</v>
+        <v>30.796469929653313</v>
       </c>
     </row>
     <row r="39" spans="13:14" x14ac:dyDescent="0.25">
@@ -11645,7 +11705,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="0"/>
-        <v>27.063490928427278</v>
+        <v>29.356928801310346</v>
       </c>
     </row>
     <row r="40" spans="13:14" x14ac:dyDescent="0.25">
@@ -11654,7 +11714,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3240459593186493</v>
+        <v>26.250644417805269</v>
       </c>
     </row>
     <row r="41" spans="13:14" x14ac:dyDescent="0.25">
@@ -11663,7 +11723,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="0"/>
-        <v>14.856461205669717</v>
+        <v>17.31123891041538</v>
       </c>
     </row>
     <row r="42" spans="13:14" x14ac:dyDescent="0.25">
@@ -11672,7 +11732,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="0"/>
-        <v>25.853999927907722</v>
+        <v>21.324968107410104</v>
       </c>
     </row>
     <row r="43" spans="13:14" x14ac:dyDescent="0.25">
@@ -11681,7 +11741,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="0"/>
-        <v>17.801010246742763</v>
+        <v>41.049320644132315</v>
       </c>
     </row>
     <row r="44" spans="13:14" x14ac:dyDescent="0.25">
@@ -11690,7 +11750,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="0"/>
-        <v>14.389557489639444</v>
+        <v>3.6517879063433316</v>
       </c>
     </row>
     <row r="45" spans="13:14" x14ac:dyDescent="0.25">
@@ -11699,7 +11759,7 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="0"/>
-        <v>22.050232134720762</v>
+        <v>4.4607596601225703</v>
       </c>
     </row>
     <row r="46" spans="13:14" x14ac:dyDescent="0.25">
@@ -11708,7 +11768,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="0"/>
-        <v>13.961792480683057</v>
+        <v>27.161842372126202</v>
       </c>
     </row>
     <row r="47" spans="13:14" x14ac:dyDescent="0.25">
@@ -11717,7 +11777,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="0"/>
-        <v>37.932561992475094</v>
+        <v>30.205138015739863</v>
       </c>
     </row>
     <row r="48" spans="13:14" x14ac:dyDescent="0.25">
@@ -11726,7 +11786,7 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7125513686706906</v>
+        <v>43.238361651380366</v>
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.25">
@@ -11735,7 +11795,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="0"/>
-        <v>20.891117228770177</v>
+        <v>4.1642582900643674</v>
       </c>
     </row>
     <row r="50" spans="13:14" x14ac:dyDescent="0.25">
@@ -11744,7 +11804,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="0"/>
-        <v>24.897465136234715</v>
+        <v>27.036360807535765</v>
       </c>
     </row>
     <row r="51" spans="13:14" x14ac:dyDescent="0.25">
@@ -11753,7 +11813,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="0"/>
-        <v>13.303884168068617</v>
+        <v>31.205895962918284</v>
       </c>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
@@ -11762,7 +11822,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2032827727185094</v>
+        <v>35.35536010964514</v>
       </c>
     </row>
     <row r="53" spans="13:14" x14ac:dyDescent="0.25">
@@ -11771,7 +11831,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="0"/>
-        <v>24.164160603411037</v>
+        <v>25.623678685841924</v>
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
@@ -11780,7 +11840,7 @@
       </c>
       <c r="N54">
         <f ca="1">RAND()*(M54-$I$2)+$I$2</f>
-        <v>26.408474540078789</v>
+        <v>10.460144831251611</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
@@ -11789,7 +11849,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="0"/>
-        <v>32.613915154175636</v>
+        <v>40.637314329791785</v>
       </c>
     </row>
     <row r="56" spans="13:14" x14ac:dyDescent="0.25">
@@ -11798,7 +11858,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="0"/>
-        <v>16.710225970917953</v>
+        <v>30.388118635670072</v>
       </c>
     </row>
   </sheetData>
@@ -11809,27 +11869,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5E862E-DBAC-42BF-9761-FA8F0BAF89CB}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -11837,7 +11900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -11846,7 +11909,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -11857,7 +11920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11865,7 +11928,7 @@
         <f>_xlfn.EXPON.DIST(A10, $B$6,FALSE)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <f>_xlfn.EXPON.DIST(A10, $B$6,TRUE)</f>
         <v>0</v>
       </c>
@@ -11877,15 +11940,15 @@
         <v>0.48658288096740798</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="5">
-        <f t="shared" ref="B11:B22" si="0">_xlfn.EXPON.DIST(A11, $B$6,FALSE)</f>
+      <c r="B11">
+        <f t="shared" ref="B11:B27" si="0">_xlfn.EXPON.DIST(A11, $B$6,FALSE)</f>
         <v>0.14108028748176901</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <f t="shared" ref="C11:C22" si="1">_xlfn.EXPON.DIST(A11, $B$6,TRUE)</f>
         <v>0.15351827510938593</v>
       </c>
@@ -11897,15 +11960,15 @@
         <v>0.68859677608540226</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>0.11942188509563154</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>0.28346868942621073</v>
       </c>
@@ -11917,186 +11980,135 @@
         <v>0.20201389511799428</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>0.10108844328543889</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>0.39346934028736658</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>8.5569519838765332E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>0.48658288096740798</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>7.2433034751179709E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>0.56540179149292169</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>6.1313240195240384E-2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>0.63212055882855767</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>5.1900537319099618E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>0.68859677608540226</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>4.3932856352621126E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>0.73640286188427329</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>3.7188360024738298E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>0.77686983985157021</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>3.147926713959364E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>0.81112439716243812</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>11</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>2.664662434661565E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>0.84012025392030609</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>2.2555880539435448E-2</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>0.8646647167633873</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12109,7 +12121,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F28:F29"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12121,1017 +12133,1020 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RAND()*10</f>
-        <v>2.0423690835813781</v>
-      </c>
-      <c r="B2" s="5">
+        <v>3.2601715414517041</v>
+      </c>
+      <c r="B2">
         <f ca="1">RAND()*100</f>
-        <v>51.581473369587762</v>
+        <v>54.387619796321175</v>
       </c>
       <c r="D2">
         <f ca="1">CORREL(A2:A101,B2:B101)</f>
-        <v>-7.6891114985180975E-2</v>
+        <v>8.2624056532849006E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RAND()*10</f>
-        <v>4.3641044566540934</v>
-      </c>
-      <c r="B3" s="5">
+        <v>1.7175426144300332</v>
+      </c>
+      <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RAND()*100</f>
-        <v>38.422762959713417</v>
+        <v>88.030819861427346</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0173993071308844</v>
-      </c>
-      <c r="B4" s="5">
+        <v>1.4022819184452318</v>
+      </c>
+      <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>71.101202038164118</v>
+        <v>39.154921922351171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4700088255752508</v>
-      </c>
-      <c r="B5" s="5">
+        <v>4.1278255924037701</v>
+      </c>
+      <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>51.078255298264786</v>
+        <v>29.554513104546608</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.390505526574259</v>
-      </c>
-      <c r="B6" s="5">
+        <v>6.9539618883035352</v>
+      </c>
+      <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>63.346289173395853</v>
+        <v>17.81072951909448</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1633169745714067</v>
-      </c>
-      <c r="B7" s="5">
+        <v>0.22241048648706019</v>
+      </c>
+      <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>16.903902606455201</v>
+        <v>31.875078811697012</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0093125313892948</v>
-      </c>
-      <c r="B8" s="5">
+        <v>5.3532723223588778</v>
+      </c>
+      <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9394491322207403</v>
+        <v>92.127673915951164</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97751962556213656</v>
-      </c>
-      <c r="B9" s="5">
+        <v>3.7138627236295396</v>
+      </c>
+      <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>94.795270990915512</v>
+        <v>48.357161169816756</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7470615476312643</v>
-      </c>
-      <c r="B10" s="5">
+        <v>9.0221345938977056</v>
+      </c>
+      <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>72.763637132659326</v>
+        <v>70.913125367136402</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6765239540733812</v>
-      </c>
-      <c r="B11" s="5">
+        <v>5.7451103984179142</v>
+      </c>
+      <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>63.201802458432731</v>
+        <v>69.347515399285641</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2247830575162988</v>
-      </c>
-      <c r="B12" s="5">
+        <v>4.3931233475276255</v>
+      </c>
+      <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>73.144963238397835</v>
+        <v>37.863543066306825</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2767617427690006</v>
-      </c>
-      <c r="B13" s="5">
+        <v>4.9848120138974581</v>
+      </c>
+      <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>20.097491112068056</v>
+        <v>13.548897884386468</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4952453055724222</v>
-      </c>
-      <c r="B14" s="5">
+        <v>3.7352339814314837</v>
+      </c>
+      <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>52.379594197365698</v>
+        <v>96.343790145937291</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5573505381083264</v>
-      </c>
-      <c r="B15" s="5">
+        <v>1.5918875407959399</v>
+      </c>
+      <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>20.891357692325673</v>
+        <v>80.318772178948294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8914465313321449</v>
-      </c>
-      <c r="B16" s="5">
+        <v>3.7234028818576337</v>
+      </c>
+      <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>27.260686843094717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+        <v>47.938329339997509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2387437496448177</v>
-      </c>
-      <c r="B17" s="5">
+        <v>0.43716944602954166</v>
+      </c>
+      <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>88.827610328657897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+        <v>55.216932625002443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6251577301121678</v>
-      </c>
-      <c r="B18" s="5">
+        <v>8.7668236568908053</v>
+      </c>
+      <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>22.003523388497836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+        <v>45.689377635249194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5423988516329552</v>
-      </c>
-      <c r="B19" s="5">
+        <v>8.5210567005029461</v>
+      </c>
+      <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>89.914792777747891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+        <v>15.853142570113921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5284667502804461</v>
-      </c>
-      <c r="B20" s="5">
+        <v>0.75731504528740334</v>
+      </c>
+      <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>48.198747024652043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+        <v>76.143574838966742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5252771163134904</v>
-      </c>
-      <c r="B21" s="5">
+        <v>1.8389501565234023</v>
+      </c>
+      <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>56.070391551124864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+        <v>33.361508750745436</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3589937771956073</v>
-      </c>
-      <c r="B22" s="5">
+        <v>2.9125196736100545</v>
+      </c>
+      <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>40.838272740492741</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+        <v>40.064926894918386</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5752827918446943</v>
-      </c>
-      <c r="B23" s="5">
+        <v>0.2290144184281151</v>
+      </c>
+      <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>90.386526485292123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+        <v>49.414117659289168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>3.570259982876153</v>
-      </c>
-      <c r="B24" s="5">
+        <v>9.8938333848033153</v>
+      </c>
+      <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3197549731562424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+        <v>12.610757311309506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1944059024450286</v>
-      </c>
-      <c r="B25" s="5">
+        <v>3.2093948009048425</v>
+      </c>
+      <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>44.993793173879567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+        <v>38.25995494836075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8083974884907565</v>
-      </c>
-      <c r="B26" s="5">
+        <v>0.62893405926065404</v>
+      </c>
+      <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>27.194661940075516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+        <v>55.490167503886859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3170477210978682</v>
-      </c>
-      <c r="B27" s="5">
+        <v>3.3422258892530499</v>
+      </c>
+      <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>86.793257662052781</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+        <v>42.808456746654457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7389497089614689</v>
-      </c>
-      <c r="B28" s="5">
+        <v>5.3163585933770445</v>
+      </c>
+      <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>48.800739833312164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+        <v>92.360245718048688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3620531551329567</v>
-      </c>
-      <c r="B29" s="5">
+        <v>5.2804910170250459</v>
+      </c>
+      <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>23.860997628493553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+        <v>41.281485125388315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0880238361687251</v>
-      </c>
-      <c r="B30" s="5">
+        <v>5.4919809820454546</v>
+      </c>
+      <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>26.275062742684764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+        <v>2.7923938973032802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7001679436001265</v>
-      </c>
-      <c r="B31" s="5">
+        <v>5.0618632080075638</v>
+      </c>
+      <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>13.858839593729599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+        <v>46.792467307223028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32549662175335725</v>
-      </c>
-      <c r="B32" s="5">
+        <v>8.2718101542594766</v>
+      </c>
+      <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5480948021741892</v>
+        <v>88.212191686420766</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6777701038462132</v>
-      </c>
-      <c r="B33" s="5">
+        <v>4.2939742299713917</v>
+      </c>
+      <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8827609795527129</v>
+        <v>55.385095811349551</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67618322184736512</v>
-      </c>
-      <c r="B34" s="5">
+        <v>3.6522864089027762</v>
+      </c>
+      <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>24.814858240996539</v>
+        <v>18.889596199655511</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5379821644747083</v>
-      </c>
-      <c r="B35" s="5">
+        <v>1.7680965670032456</v>
+      </c>
+      <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>83.665643784344425</v>
+        <v>99.029197957781093</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5080792175790587</v>
-      </c>
-      <c r="B36" s="5">
+        <v>8.7836473321278916</v>
+      </c>
+      <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>53.018469193014674</v>
+        <v>75.661299635683278</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7983516414876117</v>
-      </c>
-      <c r="B37" s="5">
+        <v>7.5151127149923971</v>
+      </c>
+      <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>38.704979798298787</v>
+        <v>69.514383219159214</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0207545936452007</v>
-      </c>
-      <c r="B38" s="5">
+        <v>8.7870948455813203</v>
+      </c>
+      <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>16.078755401192158</v>
+        <v>98.489435156052323</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5692195844121659</v>
-      </c>
-      <c r="B39" s="5">
+        <v>2.4186545313081487</v>
+      </c>
+      <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>16.651744054101194</v>
+        <v>18.627566288335618</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>4.842037599490407</v>
-      </c>
-      <c r="B40" s="5">
+        <v>8.1511773757194543</v>
+      </c>
+      <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>79.723635587183665</v>
+        <v>97.321789292435184</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3520385052426409</v>
-      </c>
-      <c r="B41" s="5">
+        <v>6.5194850335192367</v>
+      </c>
+      <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>69.272078749065955</v>
+        <v>69.507906603287267</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2543789227407509</v>
-      </c>
-      <c r="B42" s="5">
+        <v>3.6694129113518734</v>
+      </c>
+      <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>94.740919306236464</v>
+        <v>75.185866231619841</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6315647978978731</v>
-      </c>
-      <c r="B43" s="5">
+        <v>8.7682603600558746</v>
+      </c>
+      <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>44.234568552209694</v>
+        <v>49.500434975485042</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>4.43937910612589</v>
-      </c>
-      <c r="B44" s="5">
+        <v>5.7903574349715701</v>
+      </c>
+      <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>49.655183992726329</v>
+        <v>52.029081477412575</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2317964237681984</v>
-      </c>
-      <c r="B45" s="5">
+        <v>9.9265116152573505</v>
+      </c>
+      <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>78.116357845136037</v>
+        <v>36.297579372793074</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0227347930785378</v>
-      </c>
-      <c r="B46" s="5">
+        <v>2.6117767394298141</v>
+      </c>
+      <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>95.629955810376671</v>
+        <v>1.9365592512335161</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>8.482618572049736</v>
-      </c>
-      <c r="B47" s="5">
+        <v>0.20354209934942524</v>
+      </c>
+      <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>69.783476597971926</v>
+        <v>40.365559369794958</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1699547229714113</v>
-      </c>
-      <c r="B48" s="5">
+        <v>9.0439444724484606</v>
+      </c>
+      <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>73.833525293207714</v>
+        <v>15.465410159853521</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1539747785687815</v>
-      </c>
-      <c r="B49" s="5">
+        <v>1.1625360938831963</v>
+      </c>
+      <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>95.513020204760593</v>
+        <v>7.4833237271174857</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4130894939435166</v>
-      </c>
-      <c r="B50" s="5">
+        <v>2.6026749723503615</v>
+      </c>
+      <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>33.178059455457273</v>
+        <v>29.616629348917378</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6174553311074744</v>
-      </c>
-      <c r="B51" s="5">
+        <v>9.7837386050226467</v>
+      </c>
+      <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>86.338546978984269</v>
+        <v>67.632875783280426</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3958995477055058</v>
-      </c>
-      <c r="B52" s="5">
+        <v>8.700986403314932</v>
+      </c>
+      <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>49.263857503477041</v>
+        <v>35.023597161503432</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4148584626138971</v>
-      </c>
-      <c r="B53" s="5">
+        <v>1.7366083259903364</v>
+      </c>
+      <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>39.826487482049288</v>
+        <v>89.964293154894037</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5336075918738805</v>
-      </c>
-      <c r="B54" s="5">
+        <v>9.8163606199425697</v>
+      </c>
+      <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>38.529131975082635</v>
+        <v>44.738479000035184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6906635998982296</v>
-      </c>
-      <c r="B55" s="5">
+        <v>1.7439446670435754</v>
+      </c>
+      <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>32.579903610478681</v>
+        <v>32.361182593689563</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6313701103021288E-2</v>
-      </c>
-      <c r="B56" s="5">
+        <v>4.4806095042919818</v>
+      </c>
+      <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>70.335435962490791</v>
+        <v>24.71854348723549</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8106567181709323</v>
-      </c>
-      <c r="B57" s="5">
+        <v>7.5331356641331881</v>
+      </c>
+      <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>23.697983998088144</v>
+        <v>41.472565362507872</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0752590231829391</v>
-      </c>
-      <c r="B58" s="5">
+        <v>1.4363968555680684</v>
+      </c>
+      <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>88.350198739777724</v>
+        <v>26.292239712765774</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4984208421035419</v>
-      </c>
-      <c r="B59" s="5">
+        <v>8.3549279940701915</v>
+      </c>
+      <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>81.527930079687067</v>
+        <v>12.740760728331912</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>1.367947666694771</v>
-      </c>
-      <c r="B60" s="5">
+        <v>3.2605270658709262</v>
+      </c>
+      <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>28.964310639287795</v>
+        <v>97.568478899294263</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30422798831507114</v>
-      </c>
-      <c r="B61" s="5">
+        <v>8.6345916685378725</v>
+      </c>
+      <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>15.482865646845989</v>
+        <v>80.161434934957697</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9329539206767428</v>
-      </c>
-      <c r="B62" s="5">
+        <v>5.0007398229859854</v>
+      </c>
+      <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>34.73781326005949</v>
+        <v>51.50185471511525</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5846986119849844</v>
-      </c>
-      <c r="B63" s="5">
+        <v>8.0168351517394321</v>
+      </c>
+      <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1658248646858755</v>
+        <v>77.399740006761988</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7311659141567404</v>
-      </c>
-      <c r="B64" s="5">
+        <v>7.2795384132935759</v>
+      </c>
+      <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>28.826566454991152</v>
+        <v>82.621874733519093</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91177781644349309</v>
-      </c>
-      <c r="B65" s="5">
+        <v>9.692621402781171</v>
+      </c>
+      <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>60.87917545778447</v>
+        <v>76.382763209508056</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5086867216553799</v>
-      </c>
-      <c r="B66" s="5">
+        <v>6.1584901315354781</v>
+      </c>
+      <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>77.143224162050544</v>
+        <v>46.472557368938674</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="2">RAND()*10</f>
-        <v>6.1569607270296975</v>
-      </c>
-      <c r="B67" s="5">
+        <v>1.6952146487804698</v>
+      </c>
+      <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="3">RAND()*100</f>
-        <v>14.520815623068927</v>
+        <v>26.25613404543309</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8649463075240593</v>
-      </c>
-      <c r="B68" s="5">
+        <v>0.74590411209615293</v>
+      </c>
+      <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>98.294044546328337</v>
+        <v>42.748009115135154</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3947895354786226</v>
-      </c>
-      <c r="B69" s="5">
+        <v>1.4604344685862658</v>
+      </c>
+      <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>46.216787831775385</v>
+        <v>43.207464292867847</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4040599090076284</v>
-      </c>
-      <c r="B70" s="5">
+        <v>4.3316926395379829</v>
+      </c>
+      <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>37.919304830752566</v>
+        <v>63.836747509442148</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7669554685941904</v>
-      </c>
-      <c r="B71" s="5">
+        <v>8.5206623125460048</v>
+      </c>
+      <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>81.811911568454448</v>
+        <v>64.893202057019138</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1864347969162381</v>
-      </c>
-      <c r="B72" s="5">
+        <v>8.4853048170124517</v>
+      </c>
+      <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>22.607475072773099</v>
+        <v>35.620226043554084</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0077713665284724</v>
-      </c>
-      <c r="B73" s="5">
+        <v>6.7180409280046538</v>
+      </c>
+      <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>73.77735092724852</v>
+        <v>40.42178640349681</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3671788719159301</v>
-      </c>
-      <c r="B74" s="5">
+        <v>0.68112993098496832</v>
+      </c>
+      <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>39.351609371950559</v>
+        <v>21.805539591680521</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9579967829411071</v>
-      </c>
-      <c r="B75" s="5">
+        <v>3.7297673696878677</v>
+      </c>
+      <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>32.239581661300562</v>
+        <v>37.658425464943775</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5747357029640625</v>
-      </c>
-      <c r="B76" s="5">
+        <v>6.0736353841605961</v>
+      </c>
+      <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>52.693096396139936</v>
+        <v>31.266422406947004</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6150768264996183</v>
-      </c>
-      <c r="B77" s="5">
+        <v>4.7678760995433862</v>
+      </c>
+      <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>96.249214477327527</v>
+        <v>44.859647612249454</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3061991845232708</v>
-      </c>
-      <c r="B78" s="5">
+        <v>0.53676179209032004</v>
+      </c>
+      <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>40.598614274719999</v>
+        <v>53.900148158818617</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1887627009291943</v>
-      </c>
-      <c r="B79" s="5">
+        <v>1.4923350331097063</v>
+      </c>
+      <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>40.849038751678414</v>
+        <v>58.872142067973122</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5228494956350058</v>
-      </c>
-      <c r="B80" s="5">
+        <v>9.1469180880991399</v>
+      </c>
+      <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>42.688012508965343</v>
+        <v>41.498923669220979</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4918714833539646</v>
-      </c>
-      <c r="B81" s="5">
+        <v>8.975614394796116</v>
+      </c>
+      <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>15.482163397206728</v>
+        <v>0.79541993918862408</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4921432961654606</v>
-      </c>
-      <c r="B82" s="5">
+        <v>8.6485519459054565</v>
+      </c>
+      <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>75.932398033792253</v>
+        <v>85.561765185518396</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9577393122939197</v>
-      </c>
-      <c r="B83" s="5">
+        <v>0.37475934635305741</v>
+      </c>
+      <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>87.733352544250337</v>
+        <v>85.718567918023822</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7738614964443342</v>
-      </c>
-      <c r="B84" s="5">
+        <v>7.9777774697341055</v>
+      </c>
+      <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>82.509063812796228</v>
+        <v>8.8945825378444745</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3915687141534061</v>
-      </c>
-      <c r="B85" s="5">
+        <v>5.4872889096782931</v>
+      </c>
+      <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>80.038720629516519</v>
+        <v>94.785359661697271</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8376438757720654</v>
-      </c>
-      <c r="B86" s="5">
+        <v>0.81793126083737566</v>
+      </c>
+      <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>98.50308888123169</v>
+        <v>61.41230205737174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5013324948442168</v>
-      </c>
-      <c r="B87" s="5">
+        <v>8.6518805147436044</v>
+      </c>
+      <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>98.217744670572529</v>
+        <v>31.581774071152413</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9261403588744512</v>
-      </c>
-      <c r="B88" s="5">
+        <v>9.959329212663901</v>
+      </c>
+      <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>55.303500602950571</v>
+        <v>60.506291469620145</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7027647800884416</v>
-      </c>
-      <c r="B89" s="5">
+        <v>4.6307798452018663</v>
+      </c>
+      <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>57.601797999364301</v>
+        <v>59.783590018839064</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1754986899453428</v>
-      </c>
-      <c r="B90" s="5">
+        <v>9.9194700102827369</v>
+      </c>
+      <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>79.689020251529541</v>
+        <v>40.145572855610737</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6218639458362338</v>
-      </c>
-      <c r="B91" s="5">
+        <v>3.8587386587898731</v>
+      </c>
+      <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>24.406424368787061</v>
+        <v>18.355872993717792</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6877638893217517</v>
-      </c>
-      <c r="B92" s="5">
+        <v>0.8365464605743711</v>
+      </c>
+      <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>15.409158521634559</v>
+        <v>64.63682127017637</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8029689512535263</v>
-      </c>
-      <c r="B93" s="5">
+        <v>5.4773611744387551</v>
+      </c>
+      <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>81.511694278913325</v>
+        <v>13.401124543263975</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3703016583116838</v>
-      </c>
-      <c r="B94" s="5">
+        <v>2.729729975772377</v>
+      </c>
+      <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>23.977567368201981</v>
+        <v>4.114136686665848</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2025965486399581</v>
-      </c>
-      <c r="B95" s="5">
+        <v>0.15072444097783189</v>
+      </c>
+      <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>27.439273383883499</v>
+        <v>42.463147865478376</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2229826082919466</v>
-      </c>
-      <c r="B96" s="5">
+        <v>8.7239349939138595</v>
+      </c>
+      <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>51.957051202144619</v>
+        <v>14.273122299710517</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3510014895637177</v>
-      </c>
-      <c r="B97" s="5">
+        <v>7.2509641431560912</v>
+      </c>
+      <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>48.668115639544581</v>
+        <v>38.062326835174687</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98">
         <f t="shared" ca="1" si="2"/>
-        <v>3.0107498480240924</v>
-      </c>
-      <c r="B98" s="5">
+        <v>9.5870721324097392</v>
+      </c>
+      <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>67.180613703627969</v>
+        <v>59.753451330003507</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3728762566808754</v>
-      </c>
-      <c r="B99" s="5">
+        <v>0.74874899538123207</v>
+      </c>
+      <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>37.35854203148412</v>
+        <v>79.392807304215623</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3884878048383635</v>
-      </c>
-      <c r="B100" s="5">
+        <v>1.8474056085654655</v>
+      </c>
+      <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>26.860040278088228</v>
+        <v>60.296737544064968</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0648525519522281</v>
-      </c>
-      <c r="B101" s="5">
+        <v>0.6626843158240836</v>
+      </c>
+      <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>37.110510018805897</v>
+        <v>24.951400415127623</v>
       </c>
     </row>
   </sheetData>
@@ -13142,602 +13157,959 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9B52A8-3308-4EF0-B947-2A5FCD21D2FA}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f t="shared" ref="A2:A20" ca="1" si="0">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="T1">
+        <f ca="1">_xlfn.BINOM.INV(10, 0.5, RAND())</f>
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>0.1</v>
+      </c>
+      <c r="W1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A10" ca="1" si="0">_xlfn.BINOM.INV(10,0.5, RAND())</f>
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>0.1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="T2">
+        <f t="shared" ref="T2:T10" ca="1" si="1">_xlfn.BINOM.INV(10, 0.5, RAND())</f>
+        <v>4</v>
+      </c>
+      <c r="U2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0.1</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4">
         <v>0.1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>0.1</v>
+      </c>
+      <c r="W4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f t="shared" ca="1" si="0"/>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="T9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U9">
         <v>0.1</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
+      <c r="W9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>0.1</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="T10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="W11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="W12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="W13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B1:B10)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="C14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="W14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="W17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="W18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="W19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>4</v>
+      </c>
+      <c r="W100">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -13748,10 +14120,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F782CEF-1179-4C6A-B43A-9E11C0474CB6}">
-  <dimension ref="B1:D21"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13761,295 +14133,298 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <f ca="1">(RAND()*(20-10))+10</f>
-        <v>14.844235845123785</v>
+        <v>12.012216467680577</v>
       </c>
       <c r="C2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>89.826470595019458</v>
+        <v>97.562769193706586</v>
       </c>
       <c r="D2">
         <f ca="1">-LN(1-RAND())/2</f>
-        <v>0.61678671926379702</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+        <v>1.2924542993712709</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">(RAND()*(20-10))+10</f>
-        <v>12.749316322046743</v>
-      </c>
-      <c r="C3" s="5">
+        <v>14.307973943590692</v>
+      </c>
+      <c r="C3">
         <f t="shared" ref="C3:C21" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>115.90675674191363</v>
-      </c>
-      <c r="D3" s="5">
+        <v>96.743190183176068</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="2">-LN(1-RAND())/2</f>
-        <v>0.58768150088819349</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+        <v>0.75001995590768789</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>15.034476212970336</v>
-      </c>
-      <c r="C4" s="5">
+        <v>10.645862998755087</v>
+      </c>
+      <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>82.757185280727214</v>
-      </c>
-      <c r="D4" s="5">
+        <v>115.68370735647665</v>
+      </c>
+      <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38622245085642282</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+        <v>0.28742124818052855</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>10.716398286750664</v>
-      </c>
-      <c r="C5" s="5">
+        <v>11.451534834756018</v>
+      </c>
+      <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>83.686228710537904</v>
-      </c>
-      <c r="D5" s="5">
+        <v>120.38958333400272</v>
+      </c>
+      <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27394771103008414</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+        <v>0.58888157800221519</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.424075864136238</v>
-      </c>
-      <c r="C6" s="5">
+        <v>12.639012766290005</v>
+      </c>
+      <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>92.517638601121519</v>
-      </c>
-      <c r="D6" s="5">
+        <v>102.95510455506874</v>
+      </c>
+      <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9231458473185103</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+        <v>0.2743169147916234</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.930575954938721</v>
-      </c>
-      <c r="C7" s="5">
+        <v>12.869956053827018</v>
+      </c>
+      <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>123.55981177208524</v>
-      </c>
-      <c r="D7" s="5">
+        <v>105.75756298313854</v>
+      </c>
+      <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35023929973867629</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
+        <v>1.4626242523040713</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>13.487373741157445</v>
-      </c>
-      <c r="C8" s="5">
+        <v>19.431293411667696</v>
+      </c>
+      <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>101.32542591041123</v>
-      </c>
-      <c r="D8" s="5">
+        <v>88.352927328155403</v>
+      </c>
+      <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71410407427548739</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+        <v>0.51278107925328931</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.38841383258854</v>
-      </c>
-      <c r="C9" s="5">
+        <v>17.433702138390245</v>
+      </c>
+      <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>115.01650319824897</v>
-      </c>
-      <c r="D9" s="5">
+        <v>112.33518536360272</v>
+      </c>
+      <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1431254598036533</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+        <v>3.847287734681875E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>11.350152535476324</v>
-      </c>
-      <c r="C10" s="5">
+        <v>13.599208622096768</v>
+      </c>
+      <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>112.41063926143394</v>
-      </c>
-      <c r="D10" s="5">
+        <v>104.44139777095626</v>
+      </c>
+      <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8300067564298753E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+        <v>0.13529737438694719</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.587423914271504</v>
-      </c>
-      <c r="C11" s="5">
+        <v>10.616443221249567</v>
+      </c>
+      <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>91.358479183869449</v>
-      </c>
-      <c r="D11" s="5">
+        <v>91.414215174229099</v>
+      </c>
+      <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3758929103547991</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+        <v>0.59752504266503526</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>17.060609035833785</v>
-      </c>
-      <c r="C12" s="5">
+        <v>18.885756465533806</v>
+      </c>
+      <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>101.62368528791724</v>
-      </c>
-      <c r="D12" s="5">
+        <v>90.419078127148623</v>
+      </c>
+      <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16080389483042948</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
+        <v>0.3688727841646382</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>14.803514196285908</v>
-      </c>
-      <c r="C13" s="5">
+        <v>16.088608975763474</v>
+      </c>
+      <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>114.26011578525866</v>
-      </c>
-      <c r="D13" s="5">
+        <v>101.14714731625287</v>
+      </c>
+      <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4550691525931543</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+        <v>0.28767493780651299</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.078356736624947</v>
-      </c>
-      <c r="C14" s="5">
+        <v>16.284771345430617</v>
+      </c>
+      <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>97.52749191731661</v>
-      </c>
-      <c r="D14" s="5">
+        <v>101.00174322601809</v>
+      </c>
+      <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65215288457298748</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
+        <v>0.73832776212903162</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.221670146442936</v>
-      </c>
-      <c r="C15" s="5">
+        <v>14.939566661693474</v>
+      </c>
+      <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>101.1248679181799</v>
-      </c>
-      <c r="D15" s="5">
+        <v>118.9528792209783</v>
+      </c>
+      <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0342333707915414</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
+        <v>0.44037763754727793</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.035599003520208</v>
-      </c>
-      <c r="C16" s="5">
+        <v>13.616160077743446</v>
+      </c>
+      <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>108.17797241651526</v>
-      </c>
-      <c r="D16" s="5">
+        <v>67.709495691990526</v>
+      </c>
+      <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42853082867468606</v>
+        <v>1.6332298622287305</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
+      <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>11.602761546882455</v>
-      </c>
-      <c r="C17" s="5">
+        <v>19.968094187111152</v>
+      </c>
+      <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>79.387150688059364</v>
-      </c>
-      <c r="D17" s="5">
+        <v>97.385998297614393</v>
+      </c>
+      <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5986594183664413</v>
+        <v>0.51366998712502543</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
+      <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>19.346605606984298</v>
-      </c>
-      <c r="C18" s="5">
+        <v>19.851171769185662</v>
+      </c>
+      <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>96.956807098070215</v>
-      </c>
-      <c r="D18" s="5">
+        <v>111.64079670913425</v>
+      </c>
+      <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2862135141475247E-2</v>
+        <v>0.643098026303209</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
+      <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>13.676177792392343</v>
-      </c>
-      <c r="C19" s="5">
+        <v>14.243735441557636</v>
+      </c>
+      <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>111.55911161970201</v>
-      </c>
-      <c r="D19" s="5">
+        <v>70.114112013727706</v>
+      </c>
+      <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0099587934407217E-2</v>
+        <v>0.80766352653535256</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
+      <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>17.231284088605378</v>
-      </c>
-      <c r="C20" s="5">
+        <v>19.523408079929894</v>
+      </c>
+      <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>78.475842133849667</v>
-      </c>
-      <c r="D20" s="5">
+        <v>112.85624548647489</v>
+      </c>
+      <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56570198785158721</v>
+        <v>0.47324264835368623</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>14.387398366430126</v>
-      </c>
-      <c r="C21" s="5">
+        <v>19.243493741480712</v>
+      </c>
+      <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>98.554659519780472</v>
-      </c>
-      <c r="D21" s="5">
+        <v>80.572654806039495</v>
+      </c>
+      <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93901569089270032</v>
+        <v>2.6440534332683803</v>
       </c>
     </row>
   </sheetData>

--- a/pc_pracs.xlsx
+++ b/pc_pracs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natya\Desktop\DMS practical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA7E4A6-7608-4D25-B3C8-B5575061B894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120352D-C28B-43B4-B9C1-5EC7A6CC8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
@@ -720,6 +720,628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'p9'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>75.988546249738462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.235478429845756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.6842555956346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.37757558083483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.757112520919677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>108.71135351800127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.507439863290614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.561343201421408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.07081936630451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110.99953736939361</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>116.38681201877986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>114.48263994986718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107.65772754665514</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108.76290649539817</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101.45199490402932</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.236912912566396</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.442183249760461</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.338213305065338</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.562165757853094</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.969489194856664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD71-4C6B-AD16-2BABBBA41A94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1646768896"/>
+        <c:axId val="1646772736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1646768896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646772736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1646772736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646768896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'p9'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.2123067507453475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.715188903556643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1289461991309455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21810552640804889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46108696103821578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3830804516452333E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1706115251263463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43150246083609473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17079945987290862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0597905824979372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7939291490949445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1550662696287285E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27803429662806045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18370803201120134</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7959405803823987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14423456171295618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34213380728002896</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8841677597352271E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93304529454152907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2545853505772373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-861D-4F14-9ADA-750101E4876C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1646333088"/>
+        <c:axId val="1647268544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1646333088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647268544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647268544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1646333088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1705,166 +2327,166 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8700314971638494</c:v>
+                  <c:v>1.5452917235605108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8053917640438879</c:v>
+                  <c:v>2.4308433868440482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0409167340612999</c:v>
+                  <c:v>2.9233712295622425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9650222569465137</c:v>
+                  <c:v>1.8522506658494251</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.398531357591319</c:v>
+                  <c:v>2.8485246785875882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.445585368593318</c:v>
+                  <c:v>3.9135800555860705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8174560834925493</c:v>
+                  <c:v>4.0915747907898163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6935977388234233</c:v>
+                  <c:v>2.4745253206924414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1813905060045897</c:v>
+                  <c:v>2.894214553998995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5483448496037369</c:v>
+                  <c:v>2.8640857213824091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.646114805548157</c:v>
+                  <c:v>2.5897834218212612</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4675481773972878</c:v>
+                  <c:v>11.125706378104663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.816468864409575</c:v>
+                  <c:v>13.55649012031466</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.140474478419986</c:v>
+                  <c:v>1.4564675237744402</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6759362325337772</c:v>
+                  <c:v>12.543323642266458</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.094680920440084</c:v>
+                  <c:v>2.5042558227806655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.644823164422583</c:v>
+                  <c:v>16.603331187911262</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.217930546866882</c:v>
+                  <c:v>10.636471655039585</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.814390109836559</c:v>
+                  <c:v>4.8937393123851098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.365324257211991</c:v>
+                  <c:v>16.771146358563371</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.155477867213861</c:v>
+                  <c:v>17.116328955378911</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6123607121655827</c:v>
+                  <c:v>15.457711529046604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.012604723425948</c:v>
+                  <c:v>10.336751512639585</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.831114484777601</c:v>
+                  <c:v>15.996919692953291</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.374246863428862</c:v>
+                  <c:v>20.485051834666681</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.9902645069898579</c:v>
+                  <c:v>1.3225751365674721</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.5479381042969593</c:v>
+                  <c:v>16.127760928951751</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.718595718875189</c:v>
+                  <c:v>28.092926285219129</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3966420591819233</c:v>
+                  <c:v>1.1339235322044185</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.9954897013087898</c:v>
+                  <c:v>5.7722638876796157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.555330911707987</c:v>
+                  <c:v>23.821250774318848</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.569997743447111</c:v>
+                  <c:v>27.182790655644226</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.3234892084112</c:v>
+                  <c:v>16.534389916092913</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.264186971478043</c:v>
+                  <c:v>27.09621201406528</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30.288384886346208</c:v>
+                  <c:v>19.235923261065238</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30.796469929653313</c:v>
+                  <c:v>29.976561167631544</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29.356928801310346</c:v>
+                  <c:v>23.622547188742598</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>26.250644417805269</c:v>
+                  <c:v>8.0564062395788056</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.31123891041538</c:v>
+                  <c:v>18.238949827888714</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.324968107410104</c:v>
+                  <c:v>21.562635666068822</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41.049320644132315</c:v>
+                  <c:v>1.9630153718552537</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.6517879063433316</c:v>
+                  <c:v>33.192478875093379</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.4607596601225703</c:v>
+                  <c:v>18.496794472513606</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.161842372126202</c:v>
+                  <c:v>43.412449620093454</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30.205138015739863</c:v>
+                  <c:v>42.396945055613415</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43.238361651380366</c:v>
+                  <c:v>37.059395628252545</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.1642582900643674</c:v>
+                  <c:v>43.043747963598982</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.036360807535765</c:v>
+                  <c:v>2.6627919262380857</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>31.205895962918284</c:v>
+                  <c:v>16.150959948153016</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.35536010964514</c:v>
+                  <c:v>40.396115078106568</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>25.623678685841924</c:v>
+                  <c:v>15.801703855973928</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.460144831251611</c:v>
+                  <c:v>26.986337025146291</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.637314329791785</c:v>
+                  <c:v>14.970691817253472</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>30.388118635670072</c:v>
+                  <c:v>5.0568761499323376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,304 +3628,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.2601715414517041</c:v>
+                  <c:v>6.3682261944855707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7175426144300332</c:v>
+                  <c:v>7.8572006269412231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4022819184452318</c:v>
+                  <c:v>0.81466566805440954</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1278255924037701</c:v>
+                  <c:v>1.9696407450504672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9539618883035352</c:v>
+                  <c:v>3.0023029678592481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22241048648706019</c:v>
+                  <c:v>6.6475803921370114</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3532723223588778</c:v>
+                  <c:v>4.8133635161851434</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7138627236295396</c:v>
+                  <c:v>7.7559798544379133</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0221345938977056</c:v>
+                  <c:v>2.5967445574644299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7451103984179142</c:v>
+                  <c:v>5.7699236746862965</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3931233475276255</c:v>
+                  <c:v>3.9039130383533727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9848120138974581</c:v>
+                  <c:v>1.1127379845997964</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7352339814314837</c:v>
+                  <c:v>8.3308085461122694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5918875407959399</c:v>
+                  <c:v>0.10974733188813701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7234028818576337</c:v>
+                  <c:v>8.1804614236125346</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43716944602954166</c:v>
+                  <c:v>9.0680100005647315</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7668236568908053</c:v>
+                  <c:v>1.5548123714957673</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5210567005029461</c:v>
+                  <c:v>7.0409407080710213</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75731504528740334</c:v>
+                  <c:v>1.7134044306384966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8389501565234023</c:v>
+                  <c:v>3.0823542353259556</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9125196736100545</c:v>
+                  <c:v>8.3480309024907218</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2290144184281151</c:v>
+                  <c:v>5.5360767662754036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.8938333848033153</c:v>
+                  <c:v>4.7788924320837269</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2093948009048425</c:v>
+                  <c:v>9.9444435438165737</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.62893405926065404</c:v>
+                  <c:v>4.0571586258245205</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3422258892530499</c:v>
+                  <c:v>4.4005794096111046</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3163585933770445</c:v>
+                  <c:v>1.1934965624842764</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.2804910170250459</c:v>
+                  <c:v>9.7633015617628356</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4919809820454546</c:v>
+                  <c:v>3.0691327088698319</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.0618632080075638</c:v>
+                  <c:v>4.2929464781905091</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.2718101542594766</c:v>
+                  <c:v>6.6048115328593031</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.2939742299713917</c:v>
+                  <c:v>1.6370916989388196</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6522864089027762</c:v>
+                  <c:v>0.26370453736949018</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7680965670032456</c:v>
+                  <c:v>5.0160628239257301</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.7836473321278916</c:v>
+                  <c:v>9.3833119310121997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.5151127149923971</c:v>
+                  <c:v>6.2617529025849192</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.7870948455813203</c:v>
+                  <c:v>1.2393888904510542E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.4186545313081487</c:v>
+                  <c:v>6.5603137868023333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.1511773757194543</c:v>
+                  <c:v>2.6237594443445689</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.5194850335192367</c:v>
+                  <c:v>9.8605231999844953</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6694129113518734</c:v>
+                  <c:v>2.8245730197339638</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.7682603600558746</c:v>
+                  <c:v>7.6560530442053718</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.7903574349715701</c:v>
+                  <c:v>9.7503453848534622</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9265116152573505</c:v>
+                  <c:v>5.6115570368347534</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.6117767394298141</c:v>
+                  <c:v>9.3576226040675987</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.20354209934942524</c:v>
+                  <c:v>6.490257763223565</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.0439444724484606</c:v>
+                  <c:v>6.8798159522185376E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1625360938831963</c:v>
+                  <c:v>7.0004616383033742</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6026749723503615</c:v>
+                  <c:v>1.4503358845078762</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.7837386050226467</c:v>
+                  <c:v>7.4618662664276991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.700986403314932</c:v>
+                  <c:v>9.379332520531749</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.7366083259903364</c:v>
+                  <c:v>2.5451269620224224</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.8163606199425697</c:v>
+                  <c:v>8.7203432799884819</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7439446670435754</c:v>
+                  <c:v>5.3896833228913934</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4806095042919818</c:v>
+                  <c:v>4.4830819554341739</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.5331356641331881</c:v>
+                  <c:v>7.2091752093706427</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4363968555680684</c:v>
+                  <c:v>7.5043770004793302</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.3549279940701915</c:v>
+                  <c:v>7.1306038149756024</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.2605270658709262</c:v>
+                  <c:v>8.9303744279290171</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.6345916685378725</c:v>
+                  <c:v>7.9430393708762379</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0007398229859854</c:v>
+                  <c:v>4.0630231931558285</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.0168351517394321</c:v>
+                  <c:v>5.9498273779673303</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.2795384132935759</c:v>
+                  <c:v>7.6738631080098516</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.692621402781171</c:v>
+                  <c:v>1.2363164003483174</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.1584901315354781</c:v>
+                  <c:v>6.7466947156986503</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.6952146487804698</c:v>
+                  <c:v>6.8230203912965939</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.74590411209615293</c:v>
+                  <c:v>4.2364308753803819</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.4604344685862658</c:v>
+                  <c:v>0.59989827545247953</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.3316926395379829</c:v>
+                  <c:v>8.9552621049527854</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5206623125460048</c:v>
+                  <c:v>9.0181855826104673</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.4853048170124517</c:v>
+                  <c:v>6.2582971345642822</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.7180409280046538</c:v>
+                  <c:v>5.5179980962716559</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.68112993098496832</c:v>
+                  <c:v>2.9572751472516465</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.7297673696878677</c:v>
+                  <c:v>7.5999529140980471</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.0736353841605961</c:v>
+                  <c:v>9.5246905665376609</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.7678760995433862</c:v>
+                  <c:v>7.2749944867039007</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.53676179209032004</c:v>
+                  <c:v>6.474383063209924</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4923350331097063</c:v>
+                  <c:v>4.2592120548985015</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.1469180880991399</c:v>
+                  <c:v>1.7987073353449645</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.975614394796116</c:v>
+                  <c:v>9.3787507368972403</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.6485519459054565</c:v>
+                  <c:v>6.0607251272910183</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.37475934635305741</c:v>
+                  <c:v>1.662826198364673</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.9777774697341055</c:v>
+                  <c:v>0.66490333693875914</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.4872889096782931</c:v>
+                  <c:v>5.0020147081632915</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.81793126083737566</c:v>
+                  <c:v>7.0863962814642658</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.6518805147436044</c:v>
+                  <c:v>5.7987897065489271</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.959329212663901</c:v>
+                  <c:v>5.0465397686677065</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.6307798452018663</c:v>
+                  <c:v>5.1856045791859113</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.9194700102827369</c:v>
+                  <c:v>4.3678357385920394</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.8587386587898731</c:v>
+                  <c:v>6.091141176097854</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8365464605743711</c:v>
+                  <c:v>9.0131726175595812</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.4773611744387551</c:v>
+                  <c:v>0.78958016380806906</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.729729975772377</c:v>
+                  <c:v>4.9965853143112327</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.15072444097783189</c:v>
+                  <c:v>8.3374526150307577</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.7239349939138595</c:v>
+                  <c:v>7.949851832319073</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.2509641431560912</c:v>
+                  <c:v>2.5839822577776737</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.5870721324097392</c:v>
+                  <c:v>2.0536365054201933</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.74874899538123207</c:v>
+                  <c:v>4.3400461045820284</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8474056085654655</c:v>
+                  <c:v>6.6762654784130717</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.6626843158240836</c:v>
+                  <c:v>5.1554224969016138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,304 +3937,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>54.387619796321175</c:v>
+                  <c:v>86.342836035747013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88.030819861427346</c:v>
+                  <c:v>66.200751651701566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.154921922351171</c:v>
+                  <c:v>31.637804667118786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.554513104546608</c:v>
+                  <c:v>71.235252365075425</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.81072951909448</c:v>
+                  <c:v>95.637486919348163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.875078811697012</c:v>
+                  <c:v>72.014329829967821</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.127673915951164</c:v>
+                  <c:v>88.550033253062125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.357161169816756</c:v>
+                  <c:v>0.44930423889678606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.913125367136402</c:v>
+                  <c:v>50.961814001049852</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.347515399285641</c:v>
+                  <c:v>85.707164129369872</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.863543066306825</c:v>
+                  <c:v>74.077687661101407</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.548897884386468</c:v>
+                  <c:v>79.438588161051797</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.343790145937291</c:v>
+                  <c:v>68.339078735496344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>80.318772178948294</c:v>
+                  <c:v>29.926641928739595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.938329339997509</c:v>
+                  <c:v>98.169615908100823</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.216932625002443</c:v>
+                  <c:v>18.959924842176012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.689377635249194</c:v>
+                  <c:v>27.339922241366509</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.853142570113921</c:v>
+                  <c:v>55.39068088204607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76.143574838966742</c:v>
+                  <c:v>55.79758879720994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.361508750745436</c:v>
+                  <c:v>27.129384742368877</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.064926894918386</c:v>
+                  <c:v>78.811743466910983</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49.414117659289168</c:v>
+                  <c:v>29.136747432189381</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.610757311309506</c:v>
+                  <c:v>41.316692803489687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.25995494836075</c:v>
+                  <c:v>36.055301480173299</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.490167503886859</c:v>
+                  <c:v>75.943226503564802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.808456746654457</c:v>
+                  <c:v>13.256546589579376</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92.360245718048688</c:v>
+                  <c:v>85.574606910864262</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>41.281485125388315</c:v>
+                  <c:v>71.83606368558479</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7923938973032802</c:v>
+                  <c:v>3.6738366425079327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>46.792467307223028</c:v>
+                  <c:v>11.121134189271963</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>88.212191686420766</c:v>
+                  <c:v>1.2279646971093516</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>55.385095811349551</c:v>
+                  <c:v>0.90905020193913222</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.889596199655511</c:v>
+                  <c:v>39.952499293859034</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99.029197957781093</c:v>
+                  <c:v>15.729414487114878</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75.661299635683278</c:v>
+                  <c:v>55.663503894778643</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>69.514383219159214</c:v>
+                  <c:v>66.340966681338372</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>98.489435156052323</c:v>
+                  <c:v>88.627250910517958</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.627566288335618</c:v>
+                  <c:v>90.797639196206603</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>97.321789292435184</c:v>
+                  <c:v>64.526272664023949</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>69.507906603287267</c:v>
+                  <c:v>99.417293307040154</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75.185866231619841</c:v>
+                  <c:v>6.6046538582731014</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>49.500434975485042</c:v>
+                  <c:v>50.798919506502763</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>52.029081477412575</c:v>
+                  <c:v>68.147374402670508</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>36.297579372793074</c:v>
+                  <c:v>42.301559034211579</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9365592512335161</c:v>
+                  <c:v>71.12235128119174</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>40.365559369794958</c:v>
+                  <c:v>94.909727554093394</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.465410159853521</c:v>
+                  <c:v>17.402735869005593</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.4833237271174857</c:v>
+                  <c:v>11.768405245433222</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.616629348917378</c:v>
+                  <c:v>48.811732805732966</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>67.632875783280426</c:v>
+                  <c:v>38.300840972301287</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>35.023597161503432</c:v>
+                  <c:v>94.724716426245621</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>89.964293154894037</c:v>
+                  <c:v>98.223259563308616</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>44.738479000035184</c:v>
+                  <c:v>31.325555223728262</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>32.361182593689563</c:v>
+                  <c:v>60.673861443507683</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>24.71854348723549</c:v>
+                  <c:v>3.0456565438885641</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41.472565362507872</c:v>
+                  <c:v>76.521397323274059</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>26.292239712765774</c:v>
+                  <c:v>21.066970952535858</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.740760728331912</c:v>
+                  <c:v>41.873023033942602</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.568478899294263</c:v>
+                  <c:v>16.302470526588841</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>80.161434934957697</c:v>
+                  <c:v>56.640896109070461</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>51.50185471511525</c:v>
+                  <c:v>92.691945695467012</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>77.399740006761988</c:v>
+                  <c:v>52.234037429128534</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>82.621874733519093</c:v>
+                  <c:v>62.730556948719098</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>76.382763209508056</c:v>
+                  <c:v>11.289227852865313</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>46.472557368938674</c:v>
+                  <c:v>78.273960300511774</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>26.25613404543309</c:v>
+                  <c:v>97.291709432163628</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42.748009115135154</c:v>
+                  <c:v>45.021866525178581</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43.207464292867847</c:v>
+                  <c:v>48.131467559680964</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>63.836747509442148</c:v>
+                  <c:v>77.426582051180603</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>64.893202057019138</c:v>
+                  <c:v>40.492880855254285</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>35.620226043554084</c:v>
+                  <c:v>34.611832269160345</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>40.42178640349681</c:v>
+                  <c:v>13.245770943567759</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>21.805539591680521</c:v>
+                  <c:v>53.682371809477168</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>37.658425464943775</c:v>
+                  <c:v>75.277439141711639</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>31.266422406947004</c:v>
+                  <c:v>55.628779630250726</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>44.859647612249454</c:v>
+                  <c:v>25.798287944076513</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>53.900148158818617</c:v>
+                  <c:v>86.336297347301596</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>58.872142067973122</c:v>
+                  <c:v>2.6275598031761049</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>41.498923669220979</c:v>
+                  <c:v>51.785503864450021</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.79541993918862408</c:v>
+                  <c:v>32.539687091562108</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>85.561765185518396</c:v>
+                  <c:v>33.123510906345047</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>85.718567918023822</c:v>
+                  <c:v>18.843686255979598</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.8945825378444745</c:v>
+                  <c:v>95.423817379356478</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>94.785359661697271</c:v>
+                  <c:v>90.551033817912568</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>61.41230205737174</c:v>
+                  <c:v>20.689320076354733</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>31.581774071152413</c:v>
+                  <c:v>86.418647122944435</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>60.506291469620145</c:v>
+                  <c:v>25.698184728085359</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>59.783590018839064</c:v>
+                  <c:v>73.122807346511081</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40.145572855610737</c:v>
+                  <c:v>51.582370221042915</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.355872993717792</c:v>
+                  <c:v>89.972304303425588</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>64.63682127017637</c:v>
+                  <c:v>72.937521762994564</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.401124543263975</c:v>
+                  <c:v>49.075884052776409</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.114136686665848</c:v>
+                  <c:v>34.05162662016955</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42.463147865478376</c:v>
+                  <c:v>90.843194454584847</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>14.273122299710517</c:v>
+                  <c:v>2.7712468147237379</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>38.062326835174687</c:v>
+                  <c:v>88.814656103191922</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>59.753451330003507</c:v>
+                  <c:v>16.679156678602979</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79.392807304215623</c:v>
+                  <c:v>22.453719533835958</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>60.296737544064968</c:v>
+                  <c:v>39.165637990085756</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>24.951400415127623</c:v>
+                  <c:v>36.703254723324719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,7 +5035,398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'p9'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12.122589168996999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.991760413788491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.69719361982564</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.300603668000686</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.300330231769289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.015413073711837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.489269685402906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.929564979875167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.471086273033457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.089064403025233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.960238278806779</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.690145956737759</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.472954533993505</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.068669072081121</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.992891752944921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.058597123625537</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.381128578308319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.19450514815302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.508078976113765</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.198010916907769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BECE-4258-81DF-6A2F6ADA3C43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1341621872"/>
+        <c:axId val="1341624752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1341621872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341624752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1341624752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1341621872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4733,6 +5746,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5236,7 +6289,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5752,7 +6805,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6268,7 +7321,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6784,8 +7837,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6812,8 +7865,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6893,6 +7946,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6903,6 +7961,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6914,7 +7977,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6934,6 +7997,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6946,10 +8012,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6989,23 +8055,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7110,8 +8175,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7243,20 +8308,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7270,17 +8334,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7300,8 +8353,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7328,8 +8381,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7409,6 +8462,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7419,6 +8477,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7430,7 +8493,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7450,6 +8513,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7462,10 +8528,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7505,23 +8571,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7626,8 +8691,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7759,20 +8824,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7786,17 +8850,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7816,7 +8869,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8332,7 +9385,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8829,6 +9882,1554 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9215,6 +11816,119 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340A88E7-2F63-BF9D-01D0-B65CC51B9C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30E8A1D-0AD6-1329-52B3-4C27DDDEF494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884A67ED-3D8B-D7AD-3852-21029FECE43D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9534,7 +12248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAECFB5-2E3F-4924-B8CC-5AFCE5EF295A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -11305,7 +14019,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N56" ca="1" si="0">RAND()*(M3-$I$2)+$I$2</f>
-        <v>1.8700314971638494</v>
+        <v>1.5452917235605108</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -11317,7 +14031,7 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8053917640438879</v>
+        <v>2.4308433868440482</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -11333,7 +14047,7 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0409167340612999</v>
+        <v>2.9233712295622425</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -11349,7 +14063,7 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9650222569465137</v>
+        <v>1.8522506658494251</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -11371,7 +14085,7 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.398531357591319</v>
+        <v>2.8485246785875882</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -11393,7 +14107,7 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.445585368593318</v>
+        <v>3.9135800555860705</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -11415,7 +14129,7 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8174560834925493</v>
+        <v>4.0915747907898163</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -11437,7 +14151,7 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6935977388234233</v>
+        <v>2.4745253206924414</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -11453,7 +14167,7 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1813905060045897</v>
+        <v>2.894214553998995</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -11462,7 +14176,7 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5483448496037369</v>
+        <v>2.8640857213824091</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -11471,7 +14185,7 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.646114805548157</v>
+        <v>2.5897834218212612</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -11480,7 +14194,7 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4675481773972878</v>
+        <v>11.125706378104663</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -11489,7 +14203,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.816468864409575</v>
+        <v>13.55649012031466</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -11498,7 +14212,7 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.140474478419986</v>
+        <v>1.4564675237744402</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -11507,7 +14221,7 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6759362325337772</v>
+        <v>12.543323642266458</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -11516,7 +14230,7 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="0"/>
-        <v>10.094680920440084</v>
+        <v>2.5042558227806655</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -11525,7 +14239,7 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="0"/>
-        <v>12.644823164422583</v>
+        <v>16.603331187911262</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -11534,7 +14248,7 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="0"/>
-        <v>16.217930546866882</v>
+        <v>10.636471655039585</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -11543,7 +14257,7 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="0"/>
-        <v>16.814390109836559</v>
+        <v>4.8937393123851098</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -11552,7 +14266,7 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="0"/>
-        <v>16.365324257211991</v>
+        <v>16.771146358563371</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -11561,7 +14275,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="0"/>
-        <v>11.155477867213861</v>
+        <v>17.116328955378911</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -11570,7 +14284,7 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6123607121655827</v>
+        <v>15.457711529046604</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.25">
@@ -11579,7 +14293,7 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="0"/>
-        <v>18.012604723425948</v>
+        <v>10.336751512639585</v>
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.25">
@@ -11588,7 +14302,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="0"/>
-        <v>22.831114484777601</v>
+        <v>15.996919692953291</v>
       </c>
     </row>
     <row r="27" spans="13:14" x14ac:dyDescent="0.25">
@@ -11597,7 +14311,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="0"/>
-        <v>18.374246863428862</v>
+        <v>20.485051834666681</v>
       </c>
     </row>
     <row r="28" spans="13:14" x14ac:dyDescent="0.25">
@@ -11606,7 +14320,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9902645069898579</v>
+        <v>1.3225751365674721</v>
       </c>
     </row>
     <row r="29" spans="13:14" x14ac:dyDescent="0.25">
@@ -11615,7 +14329,7 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5479381042969593</v>
+        <v>16.127760928951751</v>
       </c>
     </row>
     <row r="30" spans="13:14" x14ac:dyDescent="0.25">
@@ -11624,7 +14338,7 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="0"/>
-        <v>11.718595718875189</v>
+        <v>28.092926285219129</v>
       </c>
     </row>
     <row r="31" spans="13:14" x14ac:dyDescent="0.25">
@@ -11633,7 +14347,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3966420591819233</v>
+        <v>1.1339235322044185</v>
       </c>
     </row>
     <row r="32" spans="13:14" x14ac:dyDescent="0.25">
@@ -11642,7 +14356,7 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9954897013087898</v>
+        <v>5.7722638876796157</v>
       </c>
     </row>
     <row r="33" spans="13:14" x14ac:dyDescent="0.25">
@@ -11651,7 +14365,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="0"/>
-        <v>14.555330911707987</v>
+        <v>23.821250774318848</v>
       </c>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
@@ -11660,7 +14374,7 @@
       </c>
       <c r="N34">
         <f ca="1">RAND()*(M34-$I$2)+$I$2</f>
-        <v>27.569997743447111</v>
+        <v>27.182790655644226</v>
       </c>
     </row>
     <row r="35" spans="13:14" x14ac:dyDescent="0.25">
@@ -11669,7 +14383,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="0"/>
-        <v>12.3234892084112</v>
+        <v>16.534389916092913</v>
       </c>
     </row>
     <row r="36" spans="13:14" x14ac:dyDescent="0.25">
@@ -11678,7 +14392,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="0"/>
-        <v>28.264186971478043</v>
+        <v>27.09621201406528</v>
       </c>
     </row>
     <row r="37" spans="13:14" x14ac:dyDescent="0.25">
@@ -11687,7 +14401,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="0"/>
-        <v>30.288384886346208</v>
+        <v>19.235923261065238</v>
       </c>
     </row>
     <row r="38" spans="13:14" x14ac:dyDescent="0.25">
@@ -11696,7 +14410,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="0"/>
-        <v>30.796469929653313</v>
+        <v>29.976561167631544</v>
       </c>
     </row>
     <row r="39" spans="13:14" x14ac:dyDescent="0.25">
@@ -11705,7 +14419,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="0"/>
-        <v>29.356928801310346</v>
+        <v>23.622547188742598</v>
       </c>
     </row>
     <row r="40" spans="13:14" x14ac:dyDescent="0.25">
@@ -11714,7 +14428,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="0"/>
-        <v>26.250644417805269</v>
+        <v>8.0564062395788056</v>
       </c>
     </row>
     <row r="41" spans="13:14" x14ac:dyDescent="0.25">
@@ -11723,7 +14437,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="0"/>
-        <v>17.31123891041538</v>
+        <v>18.238949827888714</v>
       </c>
     </row>
     <row r="42" spans="13:14" x14ac:dyDescent="0.25">
@@ -11732,7 +14446,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="0"/>
-        <v>21.324968107410104</v>
+        <v>21.562635666068822</v>
       </c>
     </row>
     <row r="43" spans="13:14" x14ac:dyDescent="0.25">
@@ -11741,7 +14455,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="0"/>
-        <v>41.049320644132315</v>
+        <v>1.9630153718552537</v>
       </c>
     </row>
     <row r="44" spans="13:14" x14ac:dyDescent="0.25">
@@ -11750,7 +14464,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6517879063433316</v>
+        <v>33.192478875093379</v>
       </c>
     </row>
     <row r="45" spans="13:14" x14ac:dyDescent="0.25">
@@ -11759,7 +14473,7 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4607596601225703</v>
+        <v>18.496794472513606</v>
       </c>
     </row>
     <row r="46" spans="13:14" x14ac:dyDescent="0.25">
@@ -11768,7 +14482,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="0"/>
-        <v>27.161842372126202</v>
+        <v>43.412449620093454</v>
       </c>
     </row>
     <row r="47" spans="13:14" x14ac:dyDescent="0.25">
@@ -11777,7 +14491,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="0"/>
-        <v>30.205138015739863</v>
+        <v>42.396945055613415</v>
       </c>
     </row>
     <row r="48" spans="13:14" x14ac:dyDescent="0.25">
@@ -11786,7 +14500,7 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="0"/>
-        <v>43.238361651380366</v>
+        <v>37.059395628252545</v>
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.25">
@@ -11795,7 +14509,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1642582900643674</v>
+        <v>43.043747963598982</v>
       </c>
     </row>
     <row r="50" spans="13:14" x14ac:dyDescent="0.25">
@@ -11804,7 +14518,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="0"/>
-        <v>27.036360807535765</v>
+        <v>2.6627919262380857</v>
       </c>
     </row>
     <row r="51" spans="13:14" x14ac:dyDescent="0.25">
@@ -11813,7 +14527,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="0"/>
-        <v>31.205895962918284</v>
+        <v>16.150959948153016</v>
       </c>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
@@ -11822,7 +14536,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="0"/>
-        <v>35.35536010964514</v>
+        <v>40.396115078106568</v>
       </c>
     </row>
     <row r="53" spans="13:14" x14ac:dyDescent="0.25">
@@ -11831,7 +14545,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="0"/>
-        <v>25.623678685841924</v>
+        <v>15.801703855973928</v>
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
@@ -11840,7 +14554,7 @@
       </c>
       <c r="N54">
         <f ca="1">RAND()*(M54-$I$2)+$I$2</f>
-        <v>10.460144831251611</v>
+        <v>26.986337025146291</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
@@ -11849,7 +14563,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="0"/>
-        <v>40.637314329791785</v>
+        <v>14.970691817253472</v>
       </c>
     </row>
     <row r="56" spans="13:14" x14ac:dyDescent="0.25">
@@ -11858,7 +14572,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="0"/>
-        <v>30.388118635670072</v>
+        <v>5.0568761499323376</v>
       </c>
     </row>
   </sheetData>
@@ -11872,7 +14586,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12121,7 +14835,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12145,215 +14859,215 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RAND()*10</f>
-        <v>3.2601715414517041</v>
+        <v>6.3682261944855707</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()*100</f>
-        <v>54.387619796321175</v>
+        <v>86.342836035747013</v>
       </c>
       <c r="D2">
         <f ca="1">CORREL(A2:A101,B2:B101)</f>
-        <v>8.2624056532849006E-3</v>
+        <v>0.12417284880632853</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RAND()*10</f>
-        <v>1.7175426144300332</v>
+        <v>7.8572006269412231</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RAND()*100</f>
-        <v>88.030819861427346</v>
+        <v>66.200751651701566</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4022819184452318</v>
+        <v>0.81466566805440954</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>39.154921922351171</v>
+        <v>31.637804667118786</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1278255924037701</v>
+        <v>1.9696407450504672</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>29.554513104546608</v>
+        <v>71.235252365075425</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9539618883035352</v>
+        <v>3.0023029678592481</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>17.81072951909448</v>
+        <v>95.637486919348163</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22241048648706019</v>
+        <v>6.6475803921370114</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>31.875078811697012</v>
+        <v>72.014329829967821</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3532723223588778</v>
+        <v>4.8133635161851434</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>92.127673915951164</v>
+        <v>88.550033253062125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7138627236295396</v>
+        <v>7.7559798544379133</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>48.357161169816756</v>
+        <v>0.44930423889678606</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0221345938977056</v>
+        <v>2.5967445574644299</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>70.913125367136402</v>
+        <v>50.961814001049852</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7451103984179142</v>
+        <v>5.7699236746862965</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>69.347515399285641</v>
+        <v>85.707164129369872</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3931233475276255</v>
+        <v>3.9039130383533727</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>37.863543066306825</v>
+        <v>74.077687661101407</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9848120138974581</v>
+        <v>1.1127379845997964</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>13.548897884386468</v>
+        <v>79.438588161051797</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7352339814314837</v>
+        <v>8.3308085461122694</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>96.343790145937291</v>
+        <v>68.339078735496344</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5918875407959399</v>
+        <v>0.10974733188813701</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>80.318772178948294</v>
+        <v>29.926641928739595</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7234028818576337</v>
+        <v>8.1804614236125346</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>47.938329339997509</v>
+        <v>98.169615908100823</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43716944602954166</v>
+        <v>9.0680100005647315</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>55.216932625002443</v>
+        <v>18.959924842176012</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7668236568908053</v>
+        <v>1.5548123714957673</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>45.689377635249194</v>
+        <v>27.339922241366509</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5210567005029461</v>
+        <v>7.0409407080710213</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>15.853142570113921</v>
+        <v>55.39068088204607</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75731504528740334</v>
+        <v>1.7134044306384966</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>76.143574838966742</v>
+        <v>55.79758879720994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8389501565234023</v>
+        <v>3.0823542353259556</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>33.361508750745436</v>
+        <v>27.129384742368877</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9125196736100545</v>
+        <v>8.3480309024907218</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>40.064926894918386</v>
+        <v>78.811743466910983</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>67</v>
@@ -12362,791 +15076,791 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2290144184281151</v>
+        <v>5.5360767662754036</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>49.414117659289168</v>
+        <v>29.136747432189381</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8938333848033153</v>
+        <v>4.7788924320837269</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>12.610757311309506</v>
+        <v>41.316692803489687</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2093948009048425</v>
+        <v>9.9444435438165737</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>38.25995494836075</v>
+        <v>36.055301480173299</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62893405926065404</v>
+        <v>4.0571586258245205</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>55.490167503886859</v>
+        <v>75.943226503564802</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3422258892530499</v>
+        <v>4.4005794096111046</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>42.808456746654457</v>
+        <v>13.256546589579376</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3163585933770445</v>
+        <v>1.1934965624842764</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>92.360245718048688</v>
+        <v>85.574606910864262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2804910170250459</v>
+        <v>9.7633015617628356</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>41.281485125388315</v>
+        <v>71.83606368558479</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4919809820454546</v>
+        <v>3.0691327088698319</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7923938973032802</v>
+        <v>3.6738366425079327</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0618632080075638</v>
+        <v>4.2929464781905091</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>46.792467307223028</v>
+        <v>11.121134189271963</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2718101542594766</v>
+        <v>6.6048115328593031</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>88.212191686420766</v>
+        <v>1.2279646971093516</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2939742299713917</v>
+        <v>1.6370916989388196</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>55.385095811349551</v>
+        <v>0.90905020193913222</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6522864089027762</v>
+        <v>0.26370453736949018</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>18.889596199655511</v>
+        <v>39.952499293859034</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7680965670032456</v>
+        <v>5.0160628239257301</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>99.029197957781093</v>
+        <v>15.729414487114878</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7836473321278916</v>
+        <v>9.3833119310121997</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>75.661299635683278</v>
+        <v>55.663503894778643</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5151127149923971</v>
+        <v>6.2617529025849192</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>69.514383219159214</v>
+        <v>66.340966681338372</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7870948455813203</v>
+        <v>1.2393888904510542E-2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>98.489435156052323</v>
+        <v>88.627250910517958</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4186545313081487</v>
+        <v>6.5603137868023333</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>18.627566288335618</v>
+        <v>90.797639196206603</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1511773757194543</v>
+        <v>2.6237594443445689</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>97.321789292435184</v>
+        <v>64.526272664023949</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5194850335192367</v>
+        <v>9.8605231999844953</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>69.507906603287267</v>
+        <v>99.417293307040154</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6694129113518734</v>
+        <v>2.8245730197339638</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>75.185866231619841</v>
+        <v>6.6046538582731014</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7682603600558746</v>
+        <v>7.6560530442053718</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>49.500434975485042</v>
+        <v>50.798919506502763</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7903574349715701</v>
+        <v>9.7503453848534622</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>52.029081477412575</v>
+        <v>68.147374402670508</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9265116152573505</v>
+        <v>5.6115570368347534</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>36.297579372793074</v>
+        <v>42.301559034211579</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6117767394298141</v>
+        <v>9.3576226040675987</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9365592512335161</v>
+        <v>71.12235128119174</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20354209934942524</v>
+        <v>6.490257763223565</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>40.365559369794958</v>
+        <v>94.909727554093394</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0439444724484606</v>
+        <v>6.8798159522185376E-2</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>15.465410159853521</v>
+        <v>17.402735869005593</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1625360938831963</v>
+        <v>7.0004616383033742</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4833237271174857</v>
+        <v>11.768405245433222</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6026749723503615</v>
+        <v>1.4503358845078762</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>29.616629348917378</v>
+        <v>48.811732805732966</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7837386050226467</v>
+        <v>7.4618662664276991</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>67.632875783280426</v>
+        <v>38.300840972301287</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>8.700986403314932</v>
+        <v>9.379332520531749</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>35.023597161503432</v>
+        <v>94.724716426245621</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7366083259903364</v>
+        <v>2.5451269620224224</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>89.964293154894037</v>
+        <v>98.223259563308616</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8163606199425697</v>
+        <v>8.7203432799884819</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>44.738479000035184</v>
+        <v>31.325555223728262</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7439446670435754</v>
+        <v>5.3896833228913934</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>32.361182593689563</v>
+        <v>60.673861443507683</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4806095042919818</v>
+        <v>4.4830819554341739</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>24.71854348723549</v>
+        <v>3.0456565438885641</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5331356641331881</v>
+        <v>7.2091752093706427</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>41.472565362507872</v>
+        <v>76.521397323274059</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4363968555680684</v>
+        <v>7.5043770004793302</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>26.292239712765774</v>
+        <v>21.066970952535858</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3549279940701915</v>
+        <v>7.1306038149756024</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>12.740760728331912</v>
+        <v>41.873023033942602</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2605270658709262</v>
+        <v>8.9303744279290171</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>97.568478899294263</v>
+        <v>16.302470526588841</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6345916685378725</v>
+        <v>7.9430393708762379</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>80.161434934957697</v>
+        <v>56.640896109070461</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0007398229859854</v>
+        <v>4.0630231931558285</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>51.50185471511525</v>
+        <v>92.691945695467012</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0168351517394321</v>
+        <v>5.9498273779673303</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>77.399740006761988</v>
+        <v>52.234037429128534</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2795384132935759</v>
+        <v>7.6738631080098516</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>82.621874733519093</v>
+        <v>62.730556948719098</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>9.692621402781171</v>
+        <v>1.2363164003483174</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>76.382763209508056</v>
+        <v>11.289227852865313</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1584901315354781</v>
+        <v>6.7466947156986503</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>46.472557368938674</v>
+        <v>78.273960300511774</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="2">RAND()*10</f>
-        <v>1.6952146487804698</v>
+        <v>6.8230203912965939</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="3">RAND()*100</f>
-        <v>26.25613404543309</v>
+        <v>97.291709432163628</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74590411209615293</v>
+        <v>4.2364308753803819</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>42.748009115135154</v>
+        <v>45.021866525178581</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4604344685862658</v>
+        <v>0.59989827545247953</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>43.207464292867847</v>
+        <v>48.131467559680964</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3316926395379829</v>
+        <v>8.9552621049527854</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>63.836747509442148</v>
+        <v>77.426582051180603</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5206623125460048</v>
+        <v>9.0181855826104673</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>64.893202057019138</v>
+        <v>40.492880855254285</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4853048170124517</v>
+        <v>6.2582971345642822</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>35.620226043554084</v>
+        <v>34.611832269160345</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7180409280046538</v>
+        <v>5.5179980962716559</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>40.42178640349681</v>
+        <v>13.245770943567759</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68112993098496832</v>
+        <v>2.9572751472516465</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>21.805539591680521</v>
+        <v>53.682371809477168</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7297673696878677</v>
+        <v>7.5999529140980471</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>37.658425464943775</v>
+        <v>75.277439141711639</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0736353841605961</v>
+        <v>9.5246905665376609</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>31.266422406947004</v>
+        <v>55.628779630250726</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7678760995433862</v>
+        <v>7.2749944867039007</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>44.859647612249454</v>
+        <v>25.798287944076513</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53676179209032004</v>
+        <v>6.474383063209924</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>53.900148158818617</v>
+        <v>86.336297347301596</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4923350331097063</v>
+        <v>4.2592120548985015</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>58.872142067973122</v>
+        <v>2.6275598031761049</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1469180880991399</v>
+        <v>1.7987073353449645</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>41.498923669220979</v>
+        <v>51.785503864450021</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="2"/>
-        <v>8.975614394796116</v>
+        <v>9.3787507368972403</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79541993918862408</v>
+        <v>32.539687091562108</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6485519459054565</v>
+        <v>6.0607251272910183</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>85.561765185518396</v>
+        <v>33.123510906345047</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37475934635305741</v>
+        <v>1.662826198364673</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>85.718567918023822</v>
+        <v>18.843686255979598</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9777774697341055</v>
+        <v>0.66490333693875914</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8945825378444745</v>
+        <v>95.423817379356478</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4872889096782931</v>
+        <v>5.0020147081632915</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>94.785359661697271</v>
+        <v>90.551033817912568</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81793126083737566</v>
+        <v>7.0863962814642658</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>61.41230205737174</v>
+        <v>20.689320076354733</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6518805147436044</v>
+        <v>5.7987897065489271</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>31.581774071152413</v>
+        <v>86.418647122944435</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="2"/>
-        <v>9.959329212663901</v>
+        <v>5.0465397686677065</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>60.506291469620145</v>
+        <v>25.698184728085359</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6307798452018663</v>
+        <v>5.1856045791859113</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>59.783590018839064</v>
+        <v>73.122807346511081</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9194700102827369</v>
+        <v>4.3678357385920394</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>40.145572855610737</v>
+        <v>51.582370221042915</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8587386587898731</v>
+        <v>6.091141176097854</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>18.355872993717792</v>
+        <v>89.972304303425588</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8365464605743711</v>
+        <v>9.0131726175595812</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>64.63682127017637</v>
+        <v>72.937521762994564</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4773611744387551</v>
+        <v>0.78958016380806906</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>13.401124543263975</v>
+        <v>49.075884052776409</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="2"/>
-        <v>2.729729975772377</v>
+        <v>4.9965853143112327</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>4.114136686665848</v>
+        <v>34.05162662016955</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15072444097783189</v>
+        <v>8.3374526150307577</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>42.463147865478376</v>
+        <v>90.843194454584847</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7239349939138595</v>
+        <v>7.949851832319073</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>14.273122299710517</v>
+        <v>2.7712468147237379</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2509641431560912</v>
+        <v>2.5839822577776737</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>38.062326835174687</v>
+        <v>88.814656103191922</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5870721324097392</v>
+        <v>2.0536365054201933</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>59.753451330003507</v>
+        <v>16.679156678602979</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74874899538123207</v>
+        <v>4.3400461045820284</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>79.392807304215623</v>
+        <v>22.453719533835958</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8474056085654655</v>
+        <v>6.6762654784130717</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>60.296737544064968</v>
+        <v>39.165637990085756</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6626843158240836</v>
+        <v>5.1554224969016138</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>24.951400415127623</v>
+        <v>36.703254723324719</v>
       </c>
     </row>
   </sheetData>
@@ -13160,7 +15874,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13168,7 +15882,7 @@
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>0.15</v>
@@ -13190,7 +15904,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="0">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -13200,7 +15914,7 @@
       </c>
       <c r="T2">
         <f t="shared" ref="T2:T10" ca="1" si="1">_xlfn.BINOM.INV(10, 0.5, RAND())</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U2">
         <v>0.1</v>
@@ -13222,7 +15936,7 @@
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>0.1</v>
@@ -13234,7 +15948,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -13244,7 +15958,7 @@
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>0.1</v>
@@ -13256,7 +15970,7 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -13266,7 +15980,7 @@
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>0.1</v>
@@ -13288,7 +16002,7 @@
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>0.1</v>
@@ -13300,7 +16014,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -13310,7 +16024,7 @@
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7">
         <v>0.1</v>
@@ -13322,7 +16036,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -13357,7 +16071,7 @@
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>0.1</v>
@@ -13379,7 +16093,7 @@
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <v>0.1</v>
@@ -14122,8 +16836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F782CEF-1179-4C6A-B43A-9E11C0474CB6}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14147,57 +16861,57 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <f ca="1">(RAND()*(20-10))+10</f>
-        <v>12.012216467680577</v>
+        <v>12.122589168996999</v>
       </c>
       <c r="C2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>97.562769193706586</v>
+        <v>75.988546249738462</v>
       </c>
       <c r="D2">
         <f ca="1">-LN(1-RAND())/2</f>
-        <v>1.2924542993712709</v>
+        <v>1.2123067507453475</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">(RAND()*(20-10))+10</f>
-        <v>14.307973943590692</v>
+        <v>12.991760413788491</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>96.743190183176068</v>
+        <v>89.235478429845756</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="2">-LN(1-RAND())/2</f>
-        <v>0.75001995590768789</v>
+        <v>0.715188903556643</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.645862998755087</v>
+        <v>19.69719361982564</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>115.68370735647665</v>
+        <v>100.6842555956346</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28742124818052855</v>
+        <v>2.1289461991309455</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.451534834756018</v>
+        <v>15.300603668000686</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>120.38958333400272</v>
+        <v>100.37757558083483</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58888157800221519</v>
+        <v>0.21810552640804889</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>69</v>
@@ -14206,228 +16920,229 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.639012766290005</v>
+        <v>12.300330231769289</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>102.95510455506874</v>
+        <v>83.757112520919677</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2743169147916234</v>
+        <v>0.46108696103821578</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.869956053827018</v>
+        <v>19.015413073711837</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>105.75756298313854</v>
+        <v>108.71135351800127</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4626242523040713</v>
+        <v>4.3830804516452333E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>19.431293411667696</v>
+        <v>10.489269685402906</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>88.352927328155403</v>
+        <v>74.507439863290614</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51278107925328931</v>
+        <v>1.1706115251263463</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>17.433702138390245</v>
+        <v>15.929564979875167</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>112.33518536360272</v>
+        <v>97.561343201421408</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>3.847287734681875E-2</v>
+        <v>0.43150246083609473</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>13.599208622096768</v>
+        <v>17.471086273033457</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>104.44139777095626</v>
+        <v>118.07081936630451</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13529737438694719</v>
+        <v>0.17079945987290862</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.616443221249567</v>
+        <v>16.089064403025233</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>91.414215174229099</v>
+        <v>110.99953736939361</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59752504266503526</v>
+        <v>1.0597905824979372</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>18.885756465533806</v>
+        <v>12.960238278806779</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>90.419078127148623</v>
+        <v>116.38681201877986</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3688727841646382</v>
+        <v>0.7939291490949445</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>16.088608975763474</v>
+        <v>19.690145956737759</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>101.14714731625287</v>
+        <v>114.48263994986718</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28767493780651299</v>
+        <v>3.1550662696287285E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>16.284771345430617</v>
+        <v>12.472954533993505</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>101.00174322601809</v>
+        <v>107.65772754665514</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73832776212903162</v>
+        <v>0.27803429662806045</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>14.939566661693474</v>
+        <v>17.068669072081121</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>118.9528792209783</v>
+        <v>108.76290649539817</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44037763754727793</v>
+        <v>0.18370803201120134</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>13.616160077743446</v>
+        <v>17.992891752944921</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>67.709495691990526</v>
+        <v>101.45199490402932</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6332298622287305</v>
+        <v>1.7959405803823987</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>19.968094187111152</v>
+        <v>10.058597123625537</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>97.385998297614393</v>
+        <v>70.236912912566396</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51366998712502543</v>
+        <v>0.14423456171295618</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>19.851171769185662</v>
+        <v>13.381128578308319</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>111.64079670913425</v>
+        <v>87.442183249760461</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.643098026303209</v>
+        <v>0.34213380728002896</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>14.243735441557636</v>
+        <v>19.19450514815302</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>70.114112013727706</v>
+        <v>94.338213305065338</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80766352653535256</v>
+        <v>6.8841677597352271E-3</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>19.523408079929894</v>
+        <v>18.508078976113765</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>112.85624548647489</v>
+        <v>74.562165757853094</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47324264835368623</v>
+        <v>0.93304529454152907</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>19.243493741480712</v>
+        <v>17.198010916907769</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>80.572654806039495</v>
+        <v>99.969489194856664</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6440534332683803</v>
+        <v>0.2545853505772373</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/pc_pracs.xlsx
+++ b/pc_pracs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natya\Desktop\DMS practical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120352D-C28B-43B4-B9C1-5EC7A6CC8F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4E696F-C7A2-4411-B5D4-10626ACB6ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{7CE7985A-33C6-4F52-A06B-0E6B6FC7DC21}"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
@@ -792,64 +792,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>75.988546249738462</c:v>
+                  <c:v>74.742010850078884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.235478429845756</c:v>
+                  <c:v>128.52046392475376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.6842555956346</c:v>
+                  <c:v>96.379967589322604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.37757558083483</c:v>
+                  <c:v>112.22810512520188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.757112520919677</c:v>
+                  <c:v>98.206783568959253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.71135351800127</c:v>
+                  <c:v>110.59633220858746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.507439863290614</c:v>
+                  <c:v>112.79955078486414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.561343201421408</c:v>
+                  <c:v>93.968210589180856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118.07081936630451</c:v>
+                  <c:v>104.52808136658571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.99953736939361</c:v>
+                  <c:v>114.87100460949999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.38681201877986</c:v>
+                  <c:v>105.74262976132235</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114.48263994986718</c:v>
+                  <c:v>98.961551993629016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.65772754665514</c:v>
+                  <c:v>81.43647804055523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108.76290649539817</c:v>
+                  <c:v>109.50848926572088</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.45199490402932</c:v>
+                  <c:v>98.729051397347177</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70.236912912566396</c:v>
+                  <c:v>118.01383328509303</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87.442183249760461</c:v>
+                  <c:v>121.08743470634521</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94.338213305065338</c:v>
+                  <c:v>98.680954210935056</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74.562165757853094</c:v>
+                  <c:v>106.63044471243093</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99.969489194856664</c:v>
+                  <c:v>95.78008678894642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,64 +1103,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.2123067507453475</c:v>
+                  <c:v>0.92532138338776337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.715188903556643</c:v>
+                  <c:v>0.87619980976929879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1289461991309455</c:v>
+                  <c:v>0.73683390069916266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21810552640804889</c:v>
+                  <c:v>0.51212919729167028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46108696103821578</c:v>
+                  <c:v>1.5701659294787538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3830804516452333E-2</c:v>
+                  <c:v>0.55748546364002238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1706115251263463</c:v>
+                  <c:v>0.20646444265587122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43150246083609473</c:v>
+                  <c:v>0.27309986059514607</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17079945987290862</c:v>
+                  <c:v>0.61871669942521357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0597905824979372</c:v>
+                  <c:v>7.5308432117223087E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7939291490949445</c:v>
+                  <c:v>5.9925174999489822E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1550662696287285E-2</c:v>
+                  <c:v>0.46105026924020492</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27803429662806045</c:v>
+                  <c:v>0.1694145659446035</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18370803201120134</c:v>
+                  <c:v>0.13177806801010064</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7959405803823987</c:v>
+                  <c:v>0.20767772643909316</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14423456171295618</c:v>
+                  <c:v>1.2245027428716453</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34213380728002896</c:v>
+                  <c:v>0.4640694711603347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8841677597352271E-3</c:v>
+                  <c:v>0.39264805560693578</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93304529454152907</c:v>
+                  <c:v>0.9865835929974538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2545853505772373</c:v>
+                  <c:v>0.61203633538463786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,166 +2327,166 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5452917235605108</c:v>
+                  <c:v>1.523436020117364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4308433868440482</c:v>
+                  <c:v>1.8952397953793942</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9233712295622425</c:v>
+                  <c:v>3.6691860634349829</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8522506658494251</c:v>
+                  <c:v>3.9848624756613802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8485246785875882</c:v>
+                  <c:v>2.6566170480509297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9135800555860705</c:v>
+                  <c:v>3.8329960708040631</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0915747907898163</c:v>
+                  <c:v>7.7249812145015664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4745253206924414</c:v>
+                  <c:v>6.8958061159993829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.894214553998995</c:v>
+                  <c:v>6.5711593162572424</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8640857213824091</c:v>
+                  <c:v>10.397757864352103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5897834218212612</c:v>
+                  <c:v>1.4016399125599432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.125706378104663</c:v>
+                  <c:v>7.3127399576157357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.55649012031466</c:v>
+                  <c:v>11.532086995810587</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4564675237744402</c:v>
+                  <c:v>10.107391653733105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.543323642266458</c:v>
+                  <c:v>15.220667081596725</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5042558227806655</c:v>
+                  <c:v>4.0342066972856898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.603331187911262</c:v>
+                  <c:v>14.104167390860132</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.636471655039585</c:v>
+                  <c:v>5.5831648195082622</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8937393123851098</c:v>
+                  <c:v>15.869641458004088</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.771146358563371</c:v>
+                  <c:v>2.731698508735473</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.116328955378911</c:v>
+                  <c:v>17.388812758482626</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.457711529046604</c:v>
+                  <c:v>14.845649082810359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.336751512639585</c:v>
+                  <c:v>23.276832532766498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.996919692953291</c:v>
+                  <c:v>19.832096650997233</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.485051834666681</c:v>
+                  <c:v>22.584207487584493</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3225751365674721</c:v>
+                  <c:v>15.172456897444997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.127760928951751</c:v>
+                  <c:v>8.2497747183030796</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28.092926285219129</c:v>
+                  <c:v>26.402941735294256</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1339235322044185</c:v>
+                  <c:v>14.644660585425868</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.7722638876796157</c:v>
+                  <c:v>22.713102171096676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>23.821250774318848</c:v>
+                  <c:v>24.307943678318832</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.182790655644226</c:v>
+                  <c:v>25.648697748591289</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.534389916092913</c:v>
+                  <c:v>13.204849861712551</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27.09621201406528</c:v>
+                  <c:v>23.847736809656855</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>19.235923261065238</c:v>
+                  <c:v>26.532229295127529</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.976561167631544</c:v>
+                  <c:v>8.2867117153771588</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.622547188742598</c:v>
+                  <c:v>16.38366182341403</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.0564062395788056</c:v>
+                  <c:v>19.850248532340199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.238949827888714</c:v>
+                  <c:v>35.577248187644877</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.562635666068822</c:v>
+                  <c:v>28.598093351537582</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9630153718552537</c:v>
+                  <c:v>40.847869713138721</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.192478875093379</c:v>
+                  <c:v>9.2229315497570354</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.496794472513606</c:v>
+                  <c:v>3.8989634001623146</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.412449620093454</c:v>
+                  <c:v>10.674097491588515</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.396945055613415</c:v>
+                  <c:v>14.343716683749868</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.059395628252545</c:v>
+                  <c:v>40.241450837635107</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.043747963598982</c:v>
+                  <c:v>19.512506398264573</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6627919262380857</c:v>
+                  <c:v>8.1512565852041607</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16.150959948153016</c:v>
+                  <c:v>1.0140233904629694</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>40.396115078106568</c:v>
+                  <c:v>13.983309399519927</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.801703855973928</c:v>
+                  <c:v>40.915478102923139</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.986337025146291</c:v>
+                  <c:v>20.024968864487263</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.970691817253472</c:v>
+                  <c:v>38.432193387591212</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.0568761499323376</c:v>
+                  <c:v>42.343917760562981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,304 +3628,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>6.3682261944855707</c:v>
+                  <c:v>0.76783888116375709</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8572006269412231</c:v>
+                  <c:v>4.9044171115466426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81466566805440954</c:v>
+                  <c:v>5.791809486323678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9696407450504672</c:v>
+                  <c:v>4.479632093170868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0023029678592481</c:v>
+                  <c:v>3.6484719187594705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6475803921370114</c:v>
+                  <c:v>9.6407856907553739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8133635161851434</c:v>
+                  <c:v>1.2065558642732133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7559798544379133</c:v>
+                  <c:v>3.089194398346172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5967445574644299</c:v>
+                  <c:v>5.5869285123739951</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7699236746862965</c:v>
+                  <c:v>8.3765165597340321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9039130383533727</c:v>
+                  <c:v>6.0136138258621212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1127379845997964</c:v>
+                  <c:v>1.0065994524493527</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3308085461122694</c:v>
+                  <c:v>5.7311807915845145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10974733188813701</c:v>
+                  <c:v>0.70708608434704834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1804614236125346</c:v>
+                  <c:v>5.4514239056121019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0680100005647315</c:v>
+                  <c:v>2.0079084960590965</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5548123714957673</c:v>
+                  <c:v>0.68825468124462663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0409407080710213</c:v>
+                  <c:v>6.0622864967148873</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7134044306384966</c:v>
+                  <c:v>5.8362192827358204</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0823542353259556</c:v>
+                  <c:v>3.9332754595201624</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.3480309024907218</c:v>
+                  <c:v>7.611920218998546</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.5360767662754036</c:v>
+                  <c:v>8.7770026877600777</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7788924320837269</c:v>
+                  <c:v>3.5088844302774946</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.9444435438165737</c:v>
+                  <c:v>1.2111516871050365</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.0571586258245205</c:v>
+                  <c:v>5.7480747712785307</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.4005794096111046</c:v>
+                  <c:v>6.4656606065563826</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1934965624842764</c:v>
+                  <c:v>7.3833674864895196</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.7633015617628356</c:v>
+                  <c:v>6.3133335166864466</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0691327088698319</c:v>
+                  <c:v>5.3428341412208722</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.2929464781905091</c:v>
+                  <c:v>3.3763434763188771E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.6048115328593031</c:v>
+                  <c:v>8.3649197358870104</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6370916989388196</c:v>
+                  <c:v>3.7366165838148557</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.26370453736949018</c:v>
+                  <c:v>7.6689555866974626</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.0160628239257301</c:v>
+                  <c:v>6.5289133328258853</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.3833119310121997</c:v>
+                  <c:v>4.265718201804404</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.2617529025849192</c:v>
+                  <c:v>4.1618424842946791</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2393888904510542E-2</c:v>
+                  <c:v>2.7369031668797406</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5603137868023333</c:v>
+                  <c:v>4.8316210640314257</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6237594443445689</c:v>
+                  <c:v>0.81907862874316173</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.8605231999844953</c:v>
+                  <c:v>3.0039910400232115</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.8245730197339638</c:v>
+                  <c:v>5.9144643020055376</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.6560530442053718</c:v>
+                  <c:v>6.9695734419806783</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.7503453848534622</c:v>
+                  <c:v>0.55641216286611672</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.6115570368347534</c:v>
+                  <c:v>3.9359083626267721</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.3576226040675987</c:v>
+                  <c:v>3.3082664475599852</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.490257763223565</c:v>
+                  <c:v>9.5422652632093712</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8798159522185376E-2</c:v>
+                  <c:v>0.23270601661930734</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0004616383033742</c:v>
+                  <c:v>7.1883330971808581</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4503358845078762</c:v>
+                  <c:v>7.4435774269692949</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.4618662664276991</c:v>
+                  <c:v>4.9593821042168065</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.379332520531749</c:v>
+                  <c:v>7.7178175316755384</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.5451269620224224</c:v>
+                  <c:v>4.3824825232812046</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.7203432799884819</c:v>
+                  <c:v>0.10764482317614177</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.3896833228913934</c:v>
+                  <c:v>5.0141177766688685</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.4830819554341739</c:v>
+                  <c:v>8.9180471302853519</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.2091752093706427</c:v>
+                  <c:v>6.1845565385965813</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.5043770004793302</c:v>
+                  <c:v>2.7225114101205952</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>7.1306038149756024</c:v>
+                  <c:v>6.2569919632149968</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.9303744279290171</c:v>
+                  <c:v>9.2407518133824382</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.9430393708762379</c:v>
+                  <c:v>8.6233418102942405</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.0630231931558285</c:v>
+                  <c:v>6.2756297130955137</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.9498273779673303</c:v>
+                  <c:v>5.965200725084971</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.6738631080098516</c:v>
+                  <c:v>9.1784084737288154</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2363164003483174</c:v>
+                  <c:v>7.290393420084512</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.7466947156986503</c:v>
+                  <c:v>4.7076161270611507</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.8230203912965939</c:v>
+                  <c:v>4.766029523306889</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.2364308753803819</c:v>
+                  <c:v>4.0583871226965424</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.59989827545247953</c:v>
+                  <c:v>1.5434259139069795</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.9552621049527854</c:v>
+                  <c:v>2.4881702380432258</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.0181855826104673</c:v>
+                  <c:v>4.6317820615196119</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.2582971345642822</c:v>
+                  <c:v>0.46552538055302795</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.5179980962716559</c:v>
+                  <c:v>7.7984781259020073</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9572751472516465</c:v>
+                  <c:v>4.6702488787782901</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.5999529140980471</c:v>
+                  <c:v>0.94473704017702054</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.5246905665376609</c:v>
+                  <c:v>7.165714094625848</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.2749944867039007</c:v>
+                  <c:v>2.5906981876743362</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.474383063209924</c:v>
+                  <c:v>3.2723235529758741</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.2592120548985015</c:v>
+                  <c:v>2.6209259349455749</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.7987073353449645</c:v>
+                  <c:v>8.8118677838721862</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.3787507368972403</c:v>
+                  <c:v>6.1823532480573826</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6.0607251272910183</c:v>
+                  <c:v>4.2558341404887816</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.662826198364673</c:v>
+                  <c:v>9.1976385743701279</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.66490333693875914</c:v>
+                  <c:v>3.6860301799202242</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.0020147081632915</c:v>
+                  <c:v>2.6049458754524579E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7.0863962814642658</c:v>
+                  <c:v>7.1640129952231435</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.7987897065489271</c:v>
+                  <c:v>4.5394582746309311</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.0465397686677065</c:v>
+                  <c:v>9.8842684257057059</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.1856045791859113</c:v>
+                  <c:v>6.2936092237041343</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.3678357385920394</c:v>
+                  <c:v>9.9925394168561503</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.091141176097854</c:v>
+                  <c:v>2.2540281185296349</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.0131726175595812</c:v>
+                  <c:v>1.9010515543021977</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.78958016380806906</c:v>
+                  <c:v>9.4880893677898879</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.9965853143112327</c:v>
+                  <c:v>5.4325955984555545</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.3374526150307577</c:v>
+                  <c:v>5.1758164717815545</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.949851832319073</c:v>
+                  <c:v>8.9600721051459704</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.5839822577776737</c:v>
+                  <c:v>6.7066101291358162</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.0536365054201933</c:v>
+                  <c:v>4.6173173879645537</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3400461045820284</c:v>
+                  <c:v>9.2325397649426364</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.6762654784130717</c:v>
+                  <c:v>2.0488490559193853</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.1554224969016138</c:v>
+                  <c:v>0.8935277631564853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3937,304 +3937,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>86.342836035747013</c:v>
+                  <c:v>66.008914984163383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.200751651701566</c:v>
+                  <c:v>18.429183047590282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.637804667118786</c:v>
+                  <c:v>90.689644245969276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.235252365075425</c:v>
+                  <c:v>55.605338469104701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.637486919348163</c:v>
+                  <c:v>6.4058709320195302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.014329829967821</c:v>
+                  <c:v>3.5841828371356632</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.550033253062125</c:v>
+                  <c:v>62.826030444319592</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44930423889678606</c:v>
+                  <c:v>1.2213626049437321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.961814001049852</c:v>
+                  <c:v>26.685602734487766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.707164129369872</c:v>
+                  <c:v>67.156641688762491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.077687661101407</c:v>
+                  <c:v>14.082688818492917</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.438588161051797</c:v>
+                  <c:v>38.968042441499293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>68.339078735496344</c:v>
+                  <c:v>68.825964685074183</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.926641928739595</c:v>
+                  <c:v>53.466573382115989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98.169615908100823</c:v>
+                  <c:v>44.183717770587769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.959924842176012</c:v>
+                  <c:v>66.541309583737245</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.339922241366509</c:v>
+                  <c:v>74.453660131816477</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.39068088204607</c:v>
+                  <c:v>33.246791381881188</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.79758879720994</c:v>
+                  <c:v>14.60390053664603</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.129384742368877</c:v>
+                  <c:v>46.508896954544475</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78.811743466910983</c:v>
+                  <c:v>52.111249075175479</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.136747432189381</c:v>
+                  <c:v>2.8249232107701694</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.316692803489687</c:v>
+                  <c:v>41.878813725353062</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.055301480173299</c:v>
+                  <c:v>65.417508491898829</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75.943226503564802</c:v>
+                  <c:v>1.728016052173531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>13.256546589579376</c:v>
+                  <c:v>14.775900381736717</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>85.574606910864262</c:v>
+                  <c:v>77.058623255960768</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>71.83606368558479</c:v>
+                  <c:v>0.93209054456794282</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.6738366425079327</c:v>
+                  <c:v>99.67375636944503</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.121134189271963</c:v>
+                  <c:v>50.668240646375949</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2279646971093516</c:v>
+                  <c:v>39.088049083156882</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.90905020193913222</c:v>
+                  <c:v>50.248197955503393</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.952499293859034</c:v>
+                  <c:v>64.661159588610602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>15.729414487114878</c:v>
+                  <c:v>67.701788696387695</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>55.663503894778643</c:v>
+                  <c:v>87.816675285521612</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>66.340966681338372</c:v>
+                  <c:v>82.654789590958728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.627250910517958</c:v>
+                  <c:v>4.8781528233658218</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90.797639196206603</c:v>
+                  <c:v>88.202671652921666</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>64.526272664023949</c:v>
+                  <c:v>80.995020355712981</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.417293307040154</c:v>
+                  <c:v>57.4376889309506</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.6046538582731014</c:v>
+                  <c:v>5.1970281288901798</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.798919506502763</c:v>
+                  <c:v>5.3186779335458674</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>68.147374402670508</c:v>
+                  <c:v>12.120277042903972</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42.301559034211579</c:v>
+                  <c:v>37.817703721461768</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>71.12235128119174</c:v>
+                  <c:v>52.996839635654361</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>94.909727554093394</c:v>
+                  <c:v>25.208165046801401</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.402735869005593</c:v>
+                  <c:v>26.508982372474541</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11.768405245433222</c:v>
+                  <c:v>92.975697480900109</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.811732805732966</c:v>
+                  <c:v>33.45725838792972</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.300840972301287</c:v>
+                  <c:v>59.554919511077429</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>94.724716426245621</c:v>
+                  <c:v>68.248333450335778</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>98.223259563308616</c:v>
+                  <c:v>45.898409396969221</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31.325555223728262</c:v>
+                  <c:v>39.961816096274994</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>60.673861443507683</c:v>
+                  <c:v>97.865778779627604</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0456565438885641</c:v>
+                  <c:v>34.265802488817229</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>76.521397323274059</c:v>
+                  <c:v>73.551691264616011</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>21.066970952535858</c:v>
+                  <c:v>30.81642280897443</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>41.873023033942602</c:v>
+                  <c:v>30.561196326557472</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>16.302470526588841</c:v>
+                  <c:v>56.491078311816565</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56.640896109070461</c:v>
+                  <c:v>41.564807302475707</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.691945695467012</c:v>
+                  <c:v>18.809914745349221</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>52.234037429128534</c:v>
+                  <c:v>17.343581453029579</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62.730556948719098</c:v>
+                  <c:v>33.344482592836044</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>11.289227852865313</c:v>
+                  <c:v>15.721397712593966</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>78.273960300511774</c:v>
+                  <c:v>9.9409311968028149</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>97.291709432163628</c:v>
+                  <c:v>40.704423378986931</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45.021866525178581</c:v>
+                  <c:v>9.25420324203251</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.131467559680964</c:v>
+                  <c:v>85.742727861226868</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>77.426582051180603</c:v>
+                  <c:v>46.615926159932123</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>40.492880855254285</c:v>
+                  <c:v>26.419150849300422</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>34.611832269160345</c:v>
+                  <c:v>48.304153321319454</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13.245770943567759</c:v>
+                  <c:v>3.7022699809257764</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53.682371809477168</c:v>
+                  <c:v>31.352822051158668</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>75.277439141711639</c:v>
+                  <c:v>92.587866483936807</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>55.628779630250726</c:v>
+                  <c:v>21.914893997610875</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.798287944076513</c:v>
+                  <c:v>69.092270553014686</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>86.336297347301596</c:v>
+                  <c:v>66.224927203304702</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.6275598031761049</c:v>
+                  <c:v>75.391534959030366</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51.785503864450021</c:v>
+                  <c:v>52.341329668393357</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>32.539687091562108</c:v>
+                  <c:v>68.813860195832675</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>33.123510906345047</c:v>
+                  <c:v>62.977432353700124</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.843686255979598</c:v>
+                  <c:v>21.156440512585249</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>95.423817379356478</c:v>
+                  <c:v>54.013610978931226</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>90.551033817912568</c:v>
+                  <c:v>46.554334335706059</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.689320076354733</c:v>
+                  <c:v>36.807822271589174</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>86.418647122944435</c:v>
+                  <c:v>94.45328148295593</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>25.698184728085359</c:v>
+                  <c:v>5.6958249901007729</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>73.122807346511081</c:v>
+                  <c:v>15.789735677207762</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>51.582370221042915</c:v>
+                  <c:v>95.930206940402996</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89.972304303425588</c:v>
+                  <c:v>40.363703038771213</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>72.937521762994564</c:v>
+                  <c:v>80.349753444345353</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>49.075884052776409</c:v>
+                  <c:v>88.39517633602</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>34.05162662016955</c:v>
+                  <c:v>49.695968382494037</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>90.843194454584847</c:v>
+                  <c:v>32.507844854812582</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.7712468147237379</c:v>
+                  <c:v>93.685862502281353</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>88.814656103191922</c:v>
+                  <c:v>43.480878915244979</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>16.679156678602979</c:v>
+                  <c:v>77.749883723333866</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>22.453719533835958</c:v>
+                  <c:v>48.153456075621392</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39.165637990085756</c:v>
+                  <c:v>26.577139427161857</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>36.703254723324719</c:v>
+                  <c:v>38.541394734163106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5107,64 +5107,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12.122589168996999</c:v>
+                  <c:v>11.886868571958891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.991760413788491</c:v>
+                  <c:v>16.146562605282831</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.69719361982564</c:v>
+                  <c:v>11.178118547910923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.300603668000686</c:v>
+                  <c:v>14.244813730635496</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.300330231769289</c:v>
+                  <c:v>15.793800816470682</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.015413073711837</c:v>
+                  <c:v>13.301001587754927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.489269685402906</c:v>
+                  <c:v>15.360474014830679</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.929564979875167</c:v>
+                  <c:v>16.879431004368623</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.471086273033457</c:v>
+                  <c:v>12.242849415711806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.089064403025233</c:v>
+                  <c:v>13.734841463617613</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.960238278806779</c:v>
+                  <c:v>10.385421534478468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.690145956737759</c:v>
+                  <c:v>14.034583415353858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.472954533993505</c:v>
+                  <c:v>12.790459512373932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.068669072081121</c:v>
+                  <c:v>19.690369609623428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.992891752944921</c:v>
+                  <c:v>15.143812979416644</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.058597123625537</c:v>
+                  <c:v>17.854772748351238</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13.381128578308319</c:v>
+                  <c:v>16.474368474082155</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.19450514815302</c:v>
+                  <c:v>13.979071976280965</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.508078976113765</c:v>
+                  <c:v>16.412741469126086</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.198010916907769</c:v>
+                  <c:v>18.809194847470948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N56" ca="1" si="0">RAND()*(M3-$I$2)+$I$2</f>
-        <v>1.5452917235605108</v>
+        <v>1.523436020117364</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -14031,7 +14031,7 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4308433868440482</v>
+        <v>1.8952397953793942</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9233712295622425</v>
+        <v>3.6691860634349829</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8522506658494251</v>
+        <v>3.9848624756613802</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8485246785875882</v>
+        <v>2.6566170480509297</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9135800555860705</v>
+        <v>3.8329960708040631</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -14129,7 +14129,7 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0915747907898163</v>
+        <v>7.7249812145015664</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4745253206924414</v>
+        <v>6.8958061159993829</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.894214553998995</v>
+        <v>6.5711593162572424</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8640857213824091</v>
+        <v>10.397757864352103</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5897834218212612</v>
+        <v>1.4016399125599432</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.125706378104663</v>
+        <v>7.3127399576157357</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -14203,7 +14203,7 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>13.55649012031466</v>
+        <v>11.532086995810587</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4564675237744402</v>
+        <v>10.107391653733105</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
@@ -14221,7 +14221,7 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="0"/>
-        <v>12.543323642266458</v>
+        <v>15.220667081596725</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5042558227806655</v>
+        <v>4.0342066972856898</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
@@ -14239,7 +14239,7 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="0"/>
-        <v>16.603331187911262</v>
+        <v>14.104167390860132</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="0"/>
-        <v>10.636471655039585</v>
+        <v>5.5831648195082622</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8937393123851098</v>
+        <v>15.869641458004088</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="0"/>
-        <v>16.771146358563371</v>
+        <v>2.731698508735473</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="0"/>
-        <v>17.116328955378911</v>
+        <v>17.388812758482626</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="0"/>
-        <v>15.457711529046604</v>
+        <v>14.845649082810359</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.25">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="0"/>
-        <v>10.336751512639585</v>
+        <v>23.276832532766498</v>
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.25">
@@ -14302,7 +14302,7 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.996919692953291</v>
+        <v>19.832096650997233</v>
       </c>
     </row>
     <row r="27" spans="13:14" x14ac:dyDescent="0.25">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="0"/>
-        <v>20.485051834666681</v>
+        <v>22.584207487584493</v>
       </c>
     </row>
     <row r="28" spans="13:14" x14ac:dyDescent="0.25">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3225751365674721</v>
+        <v>15.172456897444997</v>
       </c>
     </row>
     <row r="29" spans="13:14" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="0"/>
-        <v>16.127760928951751</v>
+        <v>8.2497747183030796</v>
       </c>
     </row>
     <row r="30" spans="13:14" x14ac:dyDescent="0.25">
@@ -14338,7 +14338,7 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="0"/>
-        <v>28.092926285219129</v>
+        <v>26.402941735294256</v>
       </c>
     </row>
     <row r="31" spans="13:14" x14ac:dyDescent="0.25">
@@ -14347,7 +14347,7 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1339235322044185</v>
+        <v>14.644660585425868</v>
       </c>
     </row>
     <row r="32" spans="13:14" x14ac:dyDescent="0.25">
@@ -14356,7 +14356,7 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7722638876796157</v>
+        <v>22.713102171096676</v>
       </c>
     </row>
     <row r="33" spans="13:14" x14ac:dyDescent="0.25">
@@ -14365,7 +14365,7 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="0"/>
-        <v>23.821250774318848</v>
+        <v>24.307943678318832</v>
       </c>
     </row>
     <row r="34" spans="13:14" x14ac:dyDescent="0.25">
@@ -14374,7 +14374,7 @@
       </c>
       <c r="N34">
         <f ca="1">RAND()*(M34-$I$2)+$I$2</f>
-        <v>27.182790655644226</v>
+        <v>25.648697748591289</v>
       </c>
     </row>
     <row r="35" spans="13:14" x14ac:dyDescent="0.25">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="0"/>
-        <v>16.534389916092913</v>
+        <v>13.204849861712551</v>
       </c>
     </row>
     <row r="36" spans="13:14" x14ac:dyDescent="0.25">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="0"/>
-        <v>27.09621201406528</v>
+        <v>23.847736809656855</v>
       </c>
     </row>
     <row r="37" spans="13:14" x14ac:dyDescent="0.25">
@@ -14401,7 +14401,7 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="0"/>
-        <v>19.235923261065238</v>
+        <v>26.532229295127529</v>
       </c>
     </row>
     <row r="38" spans="13:14" x14ac:dyDescent="0.25">
@@ -14410,7 +14410,7 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="0"/>
-        <v>29.976561167631544</v>
+        <v>8.2867117153771588</v>
       </c>
     </row>
     <row r="39" spans="13:14" x14ac:dyDescent="0.25">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="0"/>
-        <v>23.622547188742598</v>
+        <v>16.38366182341403</v>
       </c>
     </row>
     <row r="40" spans="13:14" x14ac:dyDescent="0.25">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0564062395788056</v>
+        <v>19.850248532340199</v>
       </c>
     </row>
     <row r="41" spans="13:14" x14ac:dyDescent="0.25">
@@ -14437,7 +14437,7 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="0"/>
-        <v>18.238949827888714</v>
+        <v>35.577248187644877</v>
       </c>
     </row>
     <row r="42" spans="13:14" x14ac:dyDescent="0.25">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="0"/>
-        <v>21.562635666068822</v>
+        <v>28.598093351537582</v>
       </c>
     </row>
     <row r="43" spans="13:14" x14ac:dyDescent="0.25">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9630153718552537</v>
+        <v>40.847869713138721</v>
       </c>
     </row>
     <row r="44" spans="13:14" x14ac:dyDescent="0.25">
@@ -14464,7 +14464,7 @@
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="0"/>
-        <v>33.192478875093379</v>
+        <v>9.2229315497570354</v>
       </c>
     </row>
     <row r="45" spans="13:14" x14ac:dyDescent="0.25">
@@ -14473,7 +14473,7 @@
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="0"/>
-        <v>18.496794472513606</v>
+        <v>3.8989634001623146</v>
       </c>
     </row>
     <row r="46" spans="13:14" x14ac:dyDescent="0.25">
@@ -14482,7 +14482,7 @@
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="0"/>
-        <v>43.412449620093454</v>
+        <v>10.674097491588515</v>
       </c>
     </row>
     <row r="47" spans="13:14" x14ac:dyDescent="0.25">
@@ -14491,7 +14491,7 @@
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="0"/>
-        <v>42.396945055613415</v>
+        <v>14.343716683749868</v>
       </c>
     </row>
     <row r="48" spans="13:14" x14ac:dyDescent="0.25">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="0"/>
-        <v>37.059395628252545</v>
+        <v>40.241450837635107</v>
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.25">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="0"/>
-        <v>43.043747963598982</v>
+        <v>19.512506398264573</v>
       </c>
     </row>
     <row r="50" spans="13:14" x14ac:dyDescent="0.25">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6627919262380857</v>
+        <v>8.1512565852041607</v>
       </c>
     </row>
     <row r="51" spans="13:14" x14ac:dyDescent="0.25">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="0"/>
-        <v>16.150959948153016</v>
+        <v>1.0140233904629694</v>
       </c>
     </row>
     <row r="52" spans="13:14" x14ac:dyDescent="0.25">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="0"/>
-        <v>40.396115078106568</v>
+        <v>13.983309399519927</v>
       </c>
     </row>
     <row r="53" spans="13:14" x14ac:dyDescent="0.25">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="0"/>
-        <v>15.801703855973928</v>
+        <v>40.915478102923139</v>
       </c>
     </row>
     <row r="54" spans="13:14" x14ac:dyDescent="0.25">
@@ -14554,7 +14554,7 @@
       </c>
       <c r="N54">
         <f ca="1">RAND()*(M54-$I$2)+$I$2</f>
-        <v>26.986337025146291</v>
+        <v>20.024968864487263</v>
       </c>
     </row>
     <row r="55" spans="13:14" x14ac:dyDescent="0.25">
@@ -14563,7 +14563,7 @@
       </c>
       <c r="N55">
         <f t="shared" ca="1" si="0"/>
-        <v>14.970691817253472</v>
+        <v>38.432193387591212</v>
       </c>
     </row>
     <row r="56" spans="13:14" x14ac:dyDescent="0.25">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0568761499323376</v>
+        <v>42.343917760562981</v>
       </c>
     </row>
   </sheetData>
@@ -14585,8 +14585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5E862E-DBAC-42BF-9761-FA8F0BAF89CB}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14859,215 +14859,215 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RAND()*10</f>
-        <v>6.3682261944855707</v>
+        <v>0.76783888116375709</v>
       </c>
       <c r="B2">
         <f ca="1">RAND()*100</f>
-        <v>86.342836035747013</v>
+        <v>66.008914984163383</v>
       </c>
       <c r="D2">
         <f ca="1">CORREL(A2:A101,B2:B101)</f>
-        <v>0.12417284880632853</v>
+        <v>-0.13801330796265729</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RAND()*10</f>
-        <v>7.8572006269412231</v>
+        <v>4.9044171115466426</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RAND()*100</f>
-        <v>66.200751651701566</v>
+        <v>18.429183047590282</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81466566805440954</v>
+        <v>5.791809486323678</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>31.637804667118786</v>
+        <v>90.689644245969276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9696407450504672</v>
+        <v>4.479632093170868</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>71.235252365075425</v>
+        <v>55.605338469104701</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0023029678592481</v>
+        <v>3.6484719187594705</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>95.637486919348163</v>
+        <v>6.4058709320195302</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6475803921370114</v>
+        <v>9.6407856907553739</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>72.014329829967821</v>
+        <v>3.5841828371356632</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8133635161851434</v>
+        <v>1.2065558642732133</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>88.550033253062125</v>
+        <v>62.826030444319592</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7559798544379133</v>
+        <v>3.089194398346172</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44930423889678606</v>
+        <v>1.2213626049437321</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5967445574644299</v>
+        <v>5.5869285123739951</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>50.961814001049852</v>
+        <v>26.685602734487766</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7699236746862965</v>
+        <v>8.3765165597340321</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>85.707164129369872</v>
+        <v>67.156641688762491</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9039130383533727</v>
+        <v>6.0136138258621212</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>74.077687661101407</v>
+        <v>14.082688818492917</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1127379845997964</v>
+        <v>1.0065994524493527</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>79.438588161051797</v>
+        <v>38.968042441499293</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3308085461122694</v>
+        <v>5.7311807915845145</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>68.339078735496344</v>
+        <v>68.825964685074183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10974733188813701</v>
+        <v>0.70708608434704834</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>29.926641928739595</v>
+        <v>53.466573382115989</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1804614236125346</v>
+        <v>5.4514239056121019</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>98.169615908100823</v>
+        <v>44.183717770587769</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0680100005647315</v>
+        <v>2.0079084960590965</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>18.959924842176012</v>
+        <v>66.541309583737245</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5548123714957673</v>
+        <v>0.68825468124462663</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>27.339922241366509</v>
+        <v>74.453660131816477</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0409407080710213</v>
+        <v>6.0622864967148873</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>55.39068088204607</v>
+        <v>33.246791381881188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7134044306384966</v>
+        <v>5.8362192827358204</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>55.79758879720994</v>
+        <v>14.60390053664603</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0823542353259556</v>
+        <v>3.9332754595201624</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>27.129384742368877</v>
+        <v>46.508896954544475</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3480309024907218</v>
+        <v>7.611920218998546</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>78.811743466910983</v>
+        <v>52.111249075175479</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>67</v>
@@ -15076,791 +15076,791 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5360767662754036</v>
+        <v>8.7770026877600777</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>29.136747432189381</v>
+        <v>2.8249232107701694</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7788924320837269</v>
+        <v>3.5088844302774946</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>41.316692803489687</v>
+        <v>41.878813725353062</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9444435438165737</v>
+        <v>1.2111516871050365</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>36.055301480173299</v>
+        <v>65.417508491898829</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0571586258245205</v>
+        <v>5.7480747712785307</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>75.943226503564802</v>
+        <v>1.728016052173531</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4005794096111046</v>
+        <v>6.4656606065563826</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>13.256546589579376</v>
+        <v>14.775900381736717</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1934965624842764</v>
+        <v>7.3833674864895196</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>85.574606910864262</v>
+        <v>77.058623255960768</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7633015617628356</v>
+        <v>6.3133335166864466</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>71.83606368558479</v>
+        <v>0.93209054456794282</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0691327088698319</v>
+        <v>5.3428341412208722</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6738366425079327</v>
+        <v>99.67375636944503</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2929464781905091</v>
+        <v>3.3763434763188771E-2</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>11.121134189271963</v>
+        <v>50.668240646375949</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6048115328593031</v>
+        <v>8.3649197358870104</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2279646971093516</v>
+        <v>39.088049083156882</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6370916989388196</v>
+        <v>3.7366165838148557</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90905020193913222</v>
+        <v>50.248197955503393</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26370453736949018</v>
+        <v>7.6689555866974626</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>39.952499293859034</v>
+        <v>64.661159588610602</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0160628239257301</v>
+        <v>6.5289133328258853</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>15.729414487114878</v>
+        <v>67.701788696387695</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3833119310121997</v>
+        <v>4.265718201804404</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>55.663503894778643</v>
+        <v>87.816675285521612</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2617529025849192</v>
+        <v>4.1618424842946791</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>66.340966681338372</v>
+        <v>82.654789590958728</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2393888904510542E-2</v>
+        <v>2.7369031668797406</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>88.627250910517958</v>
+        <v>4.8781528233658218</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5603137868023333</v>
+        <v>4.8316210640314257</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>90.797639196206603</v>
+        <v>88.202671652921666</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6237594443445689</v>
+        <v>0.81907862874316173</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>64.526272664023949</v>
+        <v>80.995020355712981</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8605231999844953</v>
+        <v>3.0039910400232115</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>99.417293307040154</v>
+        <v>57.4376889309506</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8245730197339638</v>
+        <v>5.9144643020055376</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6046538582731014</v>
+        <v>5.1970281288901798</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6560530442053718</v>
+        <v>6.9695734419806783</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>50.798919506502763</v>
+        <v>5.3186779335458674</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7503453848534622</v>
+        <v>0.55641216286611672</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>68.147374402670508</v>
+        <v>12.120277042903972</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6115570368347534</v>
+        <v>3.9359083626267721</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>42.301559034211579</v>
+        <v>37.817703721461768</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3576226040675987</v>
+        <v>3.3082664475599852</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>71.12235128119174</v>
+        <v>52.996839635654361</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>6.490257763223565</v>
+        <v>9.5422652632093712</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>94.909727554093394</v>
+        <v>25.208165046801401</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8798159522185376E-2</v>
+        <v>0.23270601661930734</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>17.402735869005593</v>
+        <v>26.508982372474541</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0004616383033742</v>
+        <v>7.1883330971808581</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>11.768405245433222</v>
+        <v>92.975697480900109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4503358845078762</v>
+        <v>7.4435774269692949</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>48.811732805732966</v>
+        <v>33.45725838792972</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4618662664276991</v>
+        <v>4.9593821042168065</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>38.300840972301287</v>
+        <v>59.554919511077429</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>9.379332520531749</v>
+        <v>7.7178175316755384</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>94.724716426245621</v>
+        <v>68.248333450335778</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5451269620224224</v>
+        <v>4.3824825232812046</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>98.223259563308616</v>
+        <v>45.898409396969221</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7203432799884819</v>
+        <v>0.10764482317614177</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>31.325555223728262</v>
+        <v>39.961816096274994</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3896833228913934</v>
+        <v>5.0141177766688685</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>60.673861443507683</v>
+        <v>97.865778779627604</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4830819554341739</v>
+        <v>8.9180471302853519</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0456565438885641</v>
+        <v>34.265802488817229</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2091752093706427</v>
+        <v>6.1845565385965813</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>76.521397323274059</v>
+        <v>73.551691264616011</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5043770004793302</v>
+        <v>2.7225114101205952</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>21.066970952535858</v>
+        <v>30.81642280897443</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1306038149756024</v>
+        <v>6.2569919632149968</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>41.873023033942602</v>
+        <v>30.561196326557472</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9303744279290171</v>
+        <v>9.2407518133824382</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>16.302470526588841</v>
+        <v>56.491078311816565</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9430393708762379</v>
+        <v>8.6233418102942405</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>56.640896109070461</v>
+        <v>41.564807302475707</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0630231931558285</v>
+        <v>6.2756297130955137</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>92.691945695467012</v>
+        <v>18.809914745349221</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9498273779673303</v>
+        <v>5.965200725084971</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>52.234037429128534</v>
+        <v>17.343581453029579</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6738631080098516</v>
+        <v>9.1784084737288154</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>62.730556948719098</v>
+        <v>33.344482592836044</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2363164003483174</v>
+        <v>7.290393420084512</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>11.289227852865313</v>
+        <v>15.721397712593966</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7466947156986503</v>
+        <v>4.7076161270611507</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>78.273960300511774</v>
+        <v>9.9409311968028149</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="2">RAND()*10</f>
-        <v>6.8230203912965939</v>
+        <v>4.766029523306889</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="3">RAND()*100</f>
-        <v>97.291709432163628</v>
+        <v>40.704423378986931</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2364308753803819</v>
+        <v>4.0583871226965424</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>45.021866525178581</v>
+        <v>9.25420324203251</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59989827545247953</v>
+        <v>1.5434259139069795</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>48.131467559680964</v>
+        <v>85.742727861226868</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9552621049527854</v>
+        <v>2.4881702380432258</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>77.426582051180603</v>
+        <v>46.615926159932123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0181855826104673</v>
+        <v>4.6317820615196119</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>40.492880855254285</v>
+        <v>26.419150849300422</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2582971345642822</v>
+        <v>0.46552538055302795</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>34.611832269160345</v>
+        <v>48.304153321319454</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5179980962716559</v>
+        <v>7.7984781259020073</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>13.245770943567759</v>
+        <v>3.7022699809257764</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9572751472516465</v>
+        <v>4.6702488787782901</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="3"/>
-        <v>53.682371809477168</v>
+        <v>31.352822051158668</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5999529140980471</v>
+        <v>0.94473704017702054</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>75.277439141711639</v>
+        <v>92.587866483936807</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5246905665376609</v>
+        <v>7.165714094625848</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>55.628779630250726</v>
+        <v>21.914893997610875</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2749944867039007</v>
+        <v>2.5906981876743362</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>25.798287944076513</v>
+        <v>69.092270553014686</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="2"/>
-        <v>6.474383063209924</v>
+        <v>3.2723235529758741</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>86.336297347301596</v>
+        <v>66.224927203304702</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2592120548985015</v>
+        <v>2.6209259349455749</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6275598031761049</v>
+        <v>75.391534959030366</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7987073353449645</v>
+        <v>8.8118677838721862</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>51.785503864450021</v>
+        <v>52.341329668393357</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3787507368972403</v>
+        <v>6.1823532480573826</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="3"/>
-        <v>32.539687091562108</v>
+        <v>68.813860195832675</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0607251272910183</v>
+        <v>4.2558341404887816</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>33.123510906345047</v>
+        <v>62.977432353700124</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="2"/>
-        <v>1.662826198364673</v>
+        <v>9.1976385743701279</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>18.843686255979598</v>
+        <v>21.156440512585249</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66490333693875914</v>
+        <v>3.6860301799202242</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="3"/>
-        <v>95.423817379356478</v>
+        <v>54.013610978931226</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0020147081632915</v>
+        <v>2.6049458754524579E-2</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>90.551033817912568</v>
+        <v>46.554334335706059</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0863962814642658</v>
+        <v>7.1640129952231435</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>20.689320076354733</v>
+        <v>36.807822271589174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7987897065489271</v>
+        <v>4.5394582746309311</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="3"/>
-        <v>86.418647122944435</v>
+        <v>94.45328148295593</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0465397686677065</v>
+        <v>9.8842684257057059</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>25.698184728085359</v>
+        <v>5.6958249901007729</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1856045791859113</v>
+        <v>6.2936092237041343</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>73.122807346511081</v>
+        <v>15.789735677207762</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3678357385920394</v>
+        <v>9.9925394168561503</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>51.582370221042915</v>
+        <v>95.930206940402996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="2"/>
-        <v>6.091141176097854</v>
+        <v>2.2540281185296349</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>89.972304303425588</v>
+        <v>40.363703038771213</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0131726175595812</v>
+        <v>1.9010515543021977</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>72.937521762994564</v>
+        <v>80.349753444345353</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78958016380806906</v>
+        <v>9.4880893677898879</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>49.075884052776409</v>
+        <v>88.39517633602</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="2"/>
-        <v>4.9965853143112327</v>
+        <v>5.4325955984555545</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>34.05162662016955</v>
+        <v>49.695968382494037</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3374526150307577</v>
+        <v>5.1758164717815545</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="3"/>
-        <v>90.843194454584847</v>
+        <v>32.507844854812582</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="2"/>
-        <v>7.949851832319073</v>
+        <v>8.9600721051459704</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7712468147237379</v>
+        <v>93.685862502281353</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5839822577776737</v>
+        <v>6.7066101291358162</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>88.814656103191922</v>
+        <v>43.480878915244979</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0536365054201933</v>
+        <v>4.6173173879645537</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>16.679156678602979</v>
+        <v>77.749883723333866</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3400461045820284</v>
+        <v>9.2325397649426364</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>22.453719533835958</v>
+        <v>48.153456075621392</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6762654784130717</v>
+        <v>2.0488490559193853</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>39.165637990085756</v>
+        <v>26.577139427161857</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1554224969016138</v>
+        <v>0.8935277631564853</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>36.703254723324719</v>
+        <v>38.541394734163106</v>
       </c>
     </row>
   </sheetData>
@@ -15882,7 +15882,7 @@
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0.15</v>
@@ -15892,7 +15892,7 @@
       </c>
       <c r="T1">
         <f ca="1">_xlfn.BINOM.INV(10, 0.5, RAND())</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U1">
         <v>0.1</v>
@@ -15904,7 +15904,7 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A10" ca="1" si="0">_xlfn.BINOM.INV(10,0.5, RAND())</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -15926,7 +15926,7 @@
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -15936,7 +15936,7 @@
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U3">
         <v>0.1</v>
@@ -15948,7 +15948,7 @@
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.1</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>0.1</v>
@@ -15970,7 +15970,7 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>0.1</v>
@@ -15992,7 +15992,7 @@
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0.1</v>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0.1</v>
@@ -16014,7 +16014,7 @@
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0.1</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U7">
         <v>0.1</v>
@@ -16036,7 +16036,7 @@
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0.1</v>
@@ -16049,7 +16049,7 @@
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <v>0.1</v>
@@ -16061,7 +16061,7 @@
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0.1</v>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>0.1</v>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>0.1</v>
@@ -16836,8 +16836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F782CEF-1179-4C6A-B43A-9E11C0474CB6}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16861,57 +16861,57 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <f ca="1">(RAND()*(20-10))+10</f>
-        <v>12.122589168996999</v>
+        <v>11.886868571958891</v>
       </c>
       <c r="C2">
         <f ca="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>75.988546249738462</v>
+        <v>74.742010850078884</v>
       </c>
       <c r="D2">
         <f ca="1">-LN(1-RAND())/2</f>
-        <v>1.2123067507453475</v>
+        <v>0.92532138338776337</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" ref="B3:B21" ca="1" si="0">(RAND()*(20-10))+10</f>
-        <v>12.991760413788491</v>
+        <v>16.146562605282831</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" ca="1" si="1">_xlfn.NORM.INV(RAND(),100,15)</f>
-        <v>89.235478429845756</v>
+        <v>128.52046392475376</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D21" ca="1" si="2">-LN(1-RAND())/2</f>
-        <v>0.715188903556643</v>
+        <v>0.87619980976929879</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>19.69719361982564</v>
+        <v>11.178118547910923</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>100.6842555956346</v>
+        <v>96.379967589322604</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1289461991309455</v>
+        <v>0.73683390069916266</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>15.300603668000686</v>
+        <v>14.244813730635496</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>100.37757558083483</v>
+        <v>112.22810512520188</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21810552640804889</v>
+        <v>0.51212919729167028</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>69</v>
@@ -16920,225 +16920,225 @@
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.300330231769289</v>
+        <v>15.793800816470682</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>83.757112520919677</v>
+        <v>98.206783568959253</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46108696103821578</v>
+        <v>1.5701659294787538</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>19.015413073711837</v>
+        <v>13.301001587754927</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>108.71135351800127</v>
+        <v>110.59633220858746</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3830804516452333E-2</v>
+        <v>0.55748546364002238</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.489269685402906</v>
+        <v>15.360474014830679</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>74.507439863290614</v>
+        <v>112.79955078486414</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1706115251263463</v>
+        <v>0.20646444265587122</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>15.929564979875167</v>
+        <v>16.879431004368623</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>97.561343201421408</v>
+        <v>93.968210589180856</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43150246083609473</v>
+        <v>0.27309986059514607</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>17.471086273033457</v>
+        <v>12.242849415711806</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>118.07081936630451</v>
+        <v>104.52808136658571</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17079945987290862</v>
+        <v>0.61871669942521357</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>16.089064403025233</v>
+        <v>13.734841463617613</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>110.99953736939361</v>
+        <v>114.87100460949999</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0597905824979372</v>
+        <v>7.5308432117223087E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.960238278806779</v>
+        <v>10.385421534478468</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>116.38681201877986</v>
+        <v>105.74262976132235</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7939291490949445</v>
+        <v>5.9925174999489822E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>19.690145956737759</v>
+        <v>14.034583415353858</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>114.48263994986718</v>
+        <v>98.961551993629016</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1550662696287285E-2</v>
+        <v>0.46105026924020492</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.472954533993505</v>
+        <v>12.790459512373932</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>107.65772754665514</v>
+        <v>81.43647804055523</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27803429662806045</v>
+        <v>0.1694145659446035</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>17.068669072081121</v>
+        <v>19.690369609623428</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>108.76290649539817</v>
+        <v>109.50848926572088</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18370803201120134</v>
+        <v>0.13177806801010064</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>17.992891752944921</v>
+        <v>15.143812979416644</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>101.45199490402932</v>
+        <v>98.729051397347177</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7959405803823987</v>
+        <v>0.20767772643909316</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>10.058597123625537</v>
+        <v>17.854772748351238</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>70.236912912566396</v>
+        <v>118.01383328509303</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14423456171295618</v>
+        <v>1.2245027428716453</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>13.381128578308319</v>
+        <v>16.474368474082155</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>87.442183249760461</v>
+        <v>121.08743470634521</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34213380728002896</v>
+        <v>0.4640694711603347</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>19.19450514815302</v>
+        <v>13.979071976280965</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>94.338213305065338</v>
+        <v>98.680954210935056</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8841677597352271E-3</v>
+        <v>0.39264805560693578</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>18.508078976113765</v>
+        <v>16.412741469126086</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>74.562165757853094</v>
+        <v>106.63044471243093</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93304529454152907</v>
+        <v>0.9865835929974538</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>17.198010916907769</v>
+        <v>18.809194847470948</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>99.969489194856664</v>
+        <v>95.78008678894642</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2545853505772373</v>
+        <v>0.61203633538463786</v>
       </c>
     </row>
   </sheetData>
